--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_15_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_15_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3726255.907789671</v>
+        <v>3721267.009320287</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>579530.7621618443</v>
+        <v>579530.7621618458</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7406237.447258239</v>
+        <v>7406237.447258238</v>
       </c>
     </row>
     <row r="11">
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>6.876045741711437</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>6.05642108929943</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1226,13 +1226,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="H9" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>5.309829763041574</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1274,10 +1274,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="X9" t="n">
-        <v>6.876045741711437</v>
+        <v>5.309829763041575</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1308,16 +1308,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>3.33498035419292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>3.334980354192922</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E11" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U11" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
-        <v>77.00116875080944</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>302.2658320988205</v>
+        <v>274.5171714496283</v>
       </c>
       <c r="X11" t="n">
         <v>322.7559640598765</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734102899</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C13" t="n">
         <v>120.2716844800353</v>
@@ -1536,19 +1536,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G13" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124556</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S13" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128492</v>
       </c>
       <c r="T13" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U13" t="n">
-        <v>239.2367015870196</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V13" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W13" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X13" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="14">
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>335.7587050448881</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E14" t="n">
-        <v>162.7341773883071</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
         <v>359.9009091231189</v>
@@ -1624,7 +1624,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H14" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.2126251695833</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
-        <v>280.7771218515423</v>
+        <v>167.2645939631878</v>
       </c>
       <c r="W14" t="n">
         <v>302.2658320988205</v>
@@ -1675,7 +1675,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247752</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734102899</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C16" t="n">
         <v>120.2716844800353</v>
@@ -1773,19 +1773,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G16" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H16" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S16" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T16" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U16" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V16" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W16" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X16" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>316.4526501194723</v>
+        <v>316.4526501194721</v>
       </c>
       <c r="C17" t="n">
-        <v>298.9917002269993</v>
+        <v>298.9917002269991</v>
       </c>
       <c r="D17" t="n">
-        <v>288.4018500766747</v>
+        <v>288.4018500766745</v>
       </c>
       <c r="E17" t="n">
-        <v>315.6491785282535</v>
+        <v>315.6491785282533</v>
       </c>
       <c r="F17" t="n">
-        <v>340.5948541977032</v>
+        <v>340.594854197703</v>
       </c>
       <c r="G17" t="n">
-        <v>344.6405341094452</v>
+        <v>344.640534109445</v>
       </c>
       <c r="H17" t="n">
-        <v>228.3265728433122</v>
+        <v>228.326572843312</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>42.90657024416754</v>
+        <v>42.9065702441674</v>
       </c>
       <c r="T17" t="n">
-        <v>137.6367785956119</v>
+        <v>137.6367785956117</v>
       </c>
       <c r="U17" t="n">
-        <v>184.7139804148937</v>
+        <v>184.7139804148935</v>
       </c>
       <c r="V17" t="n">
-        <v>261.4710669261266</v>
+        <v>261.471066926127</v>
       </c>
       <c r="W17" t="n">
-        <v>282.9597771734047</v>
+        <v>282.9597771734046</v>
       </c>
       <c r="X17" t="n">
-        <v>303.4499091344608</v>
+        <v>303.4499091344606</v>
       </c>
       <c r="Y17" t="n">
-        <v>319.9567471120453</v>
+        <v>319.9567471120452</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247727</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>113.550788637929</v>
+        <v>113.5507886379289</v>
       </c>
       <c r="C19" t="n">
-        <v>100.9656295546196</v>
+        <v>100.9656295546194</v>
       </c>
       <c r="D19" t="n">
-        <v>82.33428147420408</v>
+        <v>82.33428147420392</v>
       </c>
       <c r="E19" t="n">
-        <v>80.15277110256089</v>
+        <v>80.15277110256073</v>
       </c>
       <c r="F19" t="n">
-        <v>79.13985647892297</v>
+        <v>79.13985647892281</v>
       </c>
       <c r="G19" t="n">
-        <v>99.74461671501994</v>
+        <v>99.74461671501979</v>
       </c>
       <c r="H19" t="n">
-        <v>78.4738233703125</v>
+        <v>78.47382337031235</v>
       </c>
       <c r="I19" t="n">
-        <v>30.07122886582982</v>
+        <v>30.07122886582966</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>22.65096112603905</v>
+        <v>22.65096112603889</v>
       </c>
       <c r="S19" t="n">
-        <v>123.4878337874336</v>
+        <v>123.4878337874335</v>
       </c>
       <c r="T19" t="n">
-        <v>153.2677577321609</v>
+        <v>153.2677577321608</v>
       </c>
       <c r="U19" t="n">
-        <v>219.9306466616046</v>
+        <v>219.9306466616044</v>
       </c>
       <c r="V19" t="n">
-        <v>185.8564517798197</v>
+        <v>185.8564517798196</v>
       </c>
       <c r="W19" t="n">
-        <v>220.2418067925827</v>
+        <v>220.2418067925826</v>
       </c>
       <c r="X19" t="n">
-        <v>159.4284638450289</v>
+        <v>159.4284638450287</v>
       </c>
       <c r="Y19" t="n">
-        <v>152.3034618080865</v>
+        <v>152.3034618080864</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>316.4526501194723</v>
+        <v>316.4526501194721</v>
       </c>
       <c r="C20" t="n">
-        <v>298.9917002269993</v>
+        <v>298.9917002269991</v>
       </c>
       <c r="D20" t="n">
-        <v>288.4018500766747</v>
+        <v>288.4018500766745</v>
       </c>
       <c r="E20" t="n">
-        <v>315.6491785282535</v>
+        <v>315.6491785282533</v>
       </c>
       <c r="F20" t="n">
-        <v>340.5948541977032</v>
+        <v>340.594854197703</v>
       </c>
       <c r="G20" t="n">
-        <v>344.6405341094448</v>
+        <v>344.640534109445</v>
       </c>
       <c r="H20" t="n">
-        <v>228.3265728433122</v>
+        <v>228.326572843312</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>42.90657024416754</v>
+        <v>42.906570244168</v>
       </c>
       <c r="T20" t="n">
-        <v>137.6367785956119</v>
+        <v>137.6367785956117</v>
       </c>
       <c r="U20" t="n">
-        <v>184.7139804148937</v>
+        <v>184.7139804148935</v>
       </c>
       <c r="V20" t="n">
-        <v>261.4710669261266</v>
+        <v>261.4710669261265</v>
       </c>
       <c r="W20" t="n">
-        <v>282.9597771734047</v>
+        <v>282.9597771734046</v>
       </c>
       <c r="X20" t="n">
-        <v>303.4499091344608</v>
+        <v>303.4499091344606</v>
       </c>
       <c r="Y20" t="n">
-        <v>319.9567471120453</v>
+        <v>319.9567471120452</v>
       </c>
     </row>
     <row r="21">
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>113.550788637929</v>
+        <v>113.5507886379289</v>
       </c>
       <c r="C22" t="n">
-        <v>100.9656295546196</v>
+        <v>100.9656295546194</v>
       </c>
       <c r="D22" t="n">
-        <v>82.33428147420408</v>
+        <v>82.33428147420392</v>
       </c>
       <c r="E22" t="n">
-        <v>80.15277110256089</v>
+        <v>80.15277110256073</v>
       </c>
       <c r="F22" t="n">
-        <v>79.13985647892297</v>
+        <v>79.13985647892281</v>
       </c>
       <c r="G22" t="n">
-        <v>99.74461671501994</v>
+        <v>99.74461671501979</v>
       </c>
       <c r="H22" t="n">
-        <v>78.4738233703125</v>
+        <v>78.47382337031235</v>
       </c>
       <c r="I22" t="n">
-        <v>30.07122886582982</v>
+        <v>30.07122886582966</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>22.65096112603905</v>
+        <v>22.65096112603889</v>
       </c>
       <c r="S22" t="n">
-        <v>123.4878337874336</v>
+        <v>123.4878337874335</v>
       </c>
       <c r="T22" t="n">
-        <v>153.2677577321609</v>
+        <v>153.2677577321608</v>
       </c>
       <c r="U22" t="n">
-        <v>219.9306466616046</v>
+        <v>219.9306466616044</v>
       </c>
       <c r="V22" t="n">
-        <v>185.8564517798197</v>
+        <v>185.8564517798196</v>
       </c>
       <c r="W22" t="n">
-        <v>220.2418067925827</v>
+        <v>220.2418067925826</v>
       </c>
       <c r="X22" t="n">
-        <v>159.4284638450289</v>
+        <v>159.4284638450287</v>
       </c>
       <c r="Y22" t="n">
-        <v>152.3034618080865</v>
+        <v>152.3034618080864</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>316.4526501194723</v>
+        <v>316.4526501194721</v>
       </c>
       <c r="C23" t="n">
-        <v>298.9917002269993</v>
+        <v>298.9917002269991</v>
       </c>
       <c r="D23" t="n">
-        <v>288.4018500766747</v>
+        <v>288.4018500766745</v>
       </c>
       <c r="E23" t="n">
-        <v>315.6491785282535</v>
+        <v>315.6491785282533</v>
       </c>
       <c r="F23" t="n">
-        <v>340.5948541977032</v>
+        <v>340.594854197703</v>
       </c>
       <c r="G23" t="n">
-        <v>344.6405341094452</v>
+        <v>344.640534109445</v>
       </c>
       <c r="H23" t="n">
-        <v>228.3265728433122</v>
+        <v>228.326572843312</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>42.90657024416755</v>
+        <v>42.9065702441674</v>
       </c>
       <c r="T23" t="n">
-        <v>137.6367785956119</v>
+        <v>137.6367785956117</v>
       </c>
       <c r="U23" t="n">
         <v>184.7139804148936</v>
       </c>
       <c r="V23" t="n">
-        <v>261.4710669261266</v>
+        <v>261.4710669261265</v>
       </c>
       <c r="W23" t="n">
-        <v>282.9597771734047</v>
+        <v>282.9597771734046</v>
       </c>
       <c r="X23" t="n">
-        <v>303.4499091344608</v>
+        <v>303.4499091344606</v>
       </c>
       <c r="Y23" t="n">
-        <v>319.9567471120453</v>
+        <v>319.9567471120452</v>
       </c>
     </row>
     <row r="24">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>113.550788637929</v>
+        <v>113.5507886379289</v>
       </c>
       <c r="C25" t="n">
-        <v>100.9656295546196</v>
+        <v>100.9656295546194</v>
       </c>
       <c r="D25" t="n">
-        <v>82.33428147420408</v>
+        <v>82.33428147420392</v>
       </c>
       <c r="E25" t="n">
-        <v>80.15277110256089</v>
+        <v>80.15277110256073</v>
       </c>
       <c r="F25" t="n">
-        <v>79.13985647892297</v>
+        <v>79.13985647892281</v>
       </c>
       <c r="G25" t="n">
-        <v>99.74461671501994</v>
+        <v>99.74461671501979</v>
       </c>
       <c r="H25" t="n">
-        <v>78.4738233703125</v>
+        <v>78.47382337031235</v>
       </c>
       <c r="I25" t="n">
-        <v>30.07122886582982</v>
+        <v>30.07122886582966</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>22.65096112603905</v>
+        <v>22.65096112603889</v>
       </c>
       <c r="S25" t="n">
-        <v>123.4878337874336</v>
+        <v>123.4878337874335</v>
       </c>
       <c r="T25" t="n">
-        <v>153.2677577321609</v>
+        <v>153.2677577321608</v>
       </c>
       <c r="U25" t="n">
-        <v>219.9306466616046</v>
+        <v>219.9306466616044</v>
       </c>
       <c r="V25" t="n">
-        <v>185.8564517798197</v>
+        <v>185.8564517798196</v>
       </c>
       <c r="W25" t="n">
-        <v>220.2418067925827</v>
+        <v>220.2418067925826</v>
       </c>
       <c r="X25" t="n">
-        <v>159.4284638450289</v>
+        <v>159.4284638450287</v>
       </c>
       <c r="Y25" t="n">
-        <v>152.3034618080865</v>
+        <v>152.3034618080864</v>
       </c>
     </row>
     <row r="26">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>341.1569118905546</v>
+        <v>341.1569118905547</v>
       </c>
       <c r="C26" t="n">
-        <v>323.6959619980816</v>
+        <v>323.6959619980817</v>
       </c>
       <c r="D26" t="n">
-        <v>313.106111847757</v>
+        <v>313.1061118477571</v>
       </c>
       <c r="E26" t="n">
-        <v>340.3534402993358</v>
+        <v>340.3534402993359</v>
       </c>
       <c r="F26" t="n">
         <v>365.2991159687855</v>
       </c>
       <c r="G26" t="n">
-        <v>369.3447958805275</v>
+        <v>369.3447958805276</v>
       </c>
       <c r="H26" t="n">
-        <v>253.0308346143945</v>
+        <v>253.0308346143946</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>67.61083201524988</v>
+        <v>67.61083201524994</v>
       </c>
       <c r="T26" t="n">
-        <v>162.3410403666946</v>
+        <v>162.3410403666942</v>
       </c>
       <c r="U26" t="n">
-        <v>209.4182421859762</v>
+        <v>209.4182421859757</v>
       </c>
       <c r="V26" t="n">
         <v>286.175328697209</v>
@@ -2623,7 +2623,7 @@
         <v>328.1541709055431</v>
       </c>
       <c r="Y26" t="n">
-        <v>344.6610088831276</v>
+        <v>344.6610088831277</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247758</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>138.2550504090113</v>
+        <v>138.2550504090114</v>
       </c>
       <c r="C28" t="n">
         <v>125.6698913257019</v>
       </c>
       <c r="D28" t="n">
-        <v>107.0385432452864</v>
+        <v>107.0385432452865</v>
       </c>
       <c r="E28" t="n">
-        <v>104.8570328736432</v>
+        <v>104.8570328736433</v>
       </c>
       <c r="F28" t="n">
-        <v>103.8441182500053</v>
+        <v>103.8441182500054</v>
       </c>
       <c r="G28" t="n">
         <v>124.4488784861023</v>
       </c>
       <c r="H28" t="n">
-        <v>103.1780851413948</v>
+        <v>29.25600601213733</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>47.35522289712144</v>
       </c>
       <c r="S28" t="n">
-        <v>121.6252393263813</v>
+        <v>148.192095558516</v>
       </c>
       <c r="T28" t="n">
-        <v>177.9720195032432</v>
+        <v>177.9720195032433</v>
       </c>
       <c r="U28" t="n">
-        <v>244.6349084326869</v>
+        <v>244.634908432687</v>
       </c>
       <c r="V28" t="n">
         <v>210.5607135509021</v>
@@ -2778,10 +2778,10 @@
         <v>244.9460685636651</v>
       </c>
       <c r="X28" t="n">
-        <v>184.1327256161112</v>
+        <v>184.1327256161113</v>
       </c>
       <c r="Y28" t="n">
-        <v>177.0077235791688</v>
+        <v>177.0077235791689</v>
       </c>
     </row>
     <row r="29">
@@ -2952,7 +2952,7 @@
         <v>138.2550504090113</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>125.6698913257019</v>
       </c>
       <c r="D31" t="n">
         <v>107.0385432452864</v>
@@ -2964,10 +2964,10 @@
         <v>103.8441182500053</v>
       </c>
       <c r="G31" t="n">
-        <v>124.4488784861023</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>103.1780851413948</v>
+        <v>98.92939386132883</v>
       </c>
       <c r="I31" t="n">
         <v>54.77549063691215</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>44.32754445665456</v>
+        <v>47.35522289712138</v>
       </c>
       <c r="S31" t="n">
         <v>148.1920955585159</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>339.2508720109522</v>
+        <v>339.2508720109523</v>
       </c>
       <c r="C32" t="n">
         <v>321.7899221184792</v>
@@ -3037,7 +3037,7 @@
         <v>311.2000719681546</v>
       </c>
       <c r="E32" t="n">
-        <v>338.4474004197334</v>
+        <v>338.4474004197335</v>
       </c>
       <c r="F32" t="n">
         <v>363.3930760891831</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>65.70479213564754</v>
+        <v>65.70479213564752</v>
       </c>
       <c r="T32" t="n">
         <v>160.4350004870918</v>
       </c>
       <c r="U32" t="n">
-        <v>207.5122023063749</v>
+        <v>207.512202306374</v>
       </c>
       <c r="V32" t="n">
-        <v>284.2692888176065</v>
+        <v>284.2692888176066</v>
       </c>
       <c r="W32" t="n">
-        <v>305.7579990648846</v>
+        <v>305.7579990648847</v>
       </c>
       <c r="X32" t="n">
         <v>326.2481310259407</v>
       </c>
       <c r="Y32" t="n">
-        <v>342.7549690035252</v>
+        <v>342.7549690035253</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247758</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.09295632486651</v>
+        <v>136.349010529409</v>
       </c>
       <c r="C34" t="n">
         <v>123.7638514460995</v>
@@ -3195,19 +3195,19 @@
         <v>105.132503365684</v>
       </c>
       <c r="E34" t="n">
-        <v>102.9509929940408</v>
+        <v>102.9509929940409</v>
       </c>
       <c r="F34" t="n">
         <v>101.9380783704029</v>
       </c>
       <c r="G34" t="n">
-        <v>122.5428386064998</v>
+        <v>39.28678440195623</v>
       </c>
       <c r="H34" t="n">
-        <v>101.2720452617924</v>
+        <v>101.2720452617925</v>
       </c>
       <c r="I34" t="n">
-        <v>52.86945075730971</v>
+        <v>52.86945075730979</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>45.44918301751896</v>
+        <v>45.44918301751902</v>
       </c>
       <c r="S34" t="n">
-        <v>146.2860556789135</v>
+        <v>146.2860556789136</v>
       </c>
       <c r="T34" t="n">
-        <v>176.0659796236408</v>
+        <v>176.0659796236409</v>
       </c>
       <c r="U34" t="n">
         <v>242.7288685530845</v>
       </c>
       <c r="V34" t="n">
-        <v>208.6546736712996</v>
+        <v>208.6546736712997</v>
       </c>
       <c r="W34" t="n">
-        <v>243.0400286840626</v>
+        <v>243.0400286840627</v>
       </c>
       <c r="X34" t="n">
         <v>182.2266857365088</v>
       </c>
       <c r="Y34" t="n">
-        <v>175.1016836995664</v>
+        <v>175.1016836995665</v>
       </c>
     </row>
     <row r="35">
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>313.4878301973778</v>
+        <v>313.487830197378</v>
       </c>
       <c r="C35" t="n">
-        <v>296.0268803049048</v>
+        <v>296.026880304905</v>
       </c>
       <c r="D35" t="n">
-        <v>285.4370301545802</v>
+        <v>285.4370301545804</v>
       </c>
       <c r="E35" t="n">
-        <v>312.684358606159</v>
+        <v>312.6843586061592</v>
       </c>
       <c r="F35" t="n">
-        <v>337.6300342756086</v>
+        <v>337.6300342756089</v>
       </c>
       <c r="G35" t="n">
-        <v>341.6757141873506</v>
+        <v>341.6757141873509</v>
       </c>
       <c r="H35" t="n">
-        <v>225.3617529212177</v>
+        <v>225.3617529212179</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>39.94175032207306</v>
+        <v>39.94175032207328</v>
       </c>
       <c r="T35" t="n">
-        <v>134.6719586735173</v>
+        <v>134.6719586735176</v>
       </c>
       <c r="U35" t="n">
-        <v>181.7491604927996</v>
+        <v>181.7491604927991</v>
       </c>
       <c r="V35" t="n">
-        <v>258.5062470040321</v>
+        <v>258.5062470040323</v>
       </c>
       <c r="W35" t="n">
-        <v>279.9949572513102</v>
+        <v>279.9949572513104</v>
       </c>
       <c r="X35" t="n">
-        <v>300.4850892123662</v>
+        <v>300.4850892123665</v>
       </c>
       <c r="Y35" t="n">
-        <v>316.9919271899508</v>
+        <v>316.991927189951</v>
       </c>
     </row>
     <row r="36">
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>110.5859687158345</v>
+        <v>110.5859687158347</v>
       </c>
       <c r="C37" t="n">
-        <v>98.00080963252505</v>
+        <v>98.00080963252528</v>
       </c>
       <c r="D37" t="n">
-        <v>79.36946155210957</v>
+        <v>79.3694615521098</v>
       </c>
       <c r="E37" t="n">
-        <v>77.18795118046638</v>
+        <v>77.18795118046661</v>
       </c>
       <c r="F37" t="n">
-        <v>76.17503655682846</v>
+        <v>76.17503655682869</v>
       </c>
       <c r="G37" t="n">
-        <v>96.77979679292544</v>
+        <v>96.77979679292567</v>
       </c>
       <c r="H37" t="n">
-        <v>75.509003448218</v>
+        <v>75.50900344821822</v>
       </c>
       <c r="I37" t="n">
-        <v>27.10640894373531</v>
+        <v>27.10640894373554</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>19.68614120394454</v>
+        <v>19.68614120394477</v>
       </c>
       <c r="S37" t="n">
-        <v>120.5230138653391</v>
+        <v>120.5230138653393</v>
       </c>
       <c r="T37" t="n">
-        <v>150.3029378100664</v>
+        <v>150.3029378100666</v>
       </c>
       <c r="U37" t="n">
-        <v>216.96582673951</v>
+        <v>216.9658267395103</v>
       </c>
       <c r="V37" t="n">
-        <v>182.8916318577252</v>
+        <v>182.8916318577254</v>
       </c>
       <c r="W37" t="n">
-        <v>217.2769868704882</v>
+        <v>217.2769868704884</v>
       </c>
       <c r="X37" t="n">
-        <v>156.4636439229344</v>
+        <v>156.4636439229346</v>
       </c>
       <c r="Y37" t="n">
-        <v>149.338641885992</v>
+        <v>149.3386418859922</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>313.4878301973778</v>
+        <v>313.487830197378</v>
       </c>
       <c r="C38" t="n">
-        <v>296.0268803049048</v>
+        <v>296.026880304905</v>
       </c>
       <c r="D38" t="n">
-        <v>285.4370301545802</v>
+        <v>285.4370301545804</v>
       </c>
       <c r="E38" t="n">
-        <v>312.684358606159</v>
+        <v>312.6843586061592</v>
       </c>
       <c r="F38" t="n">
-        <v>337.6300342756086</v>
+        <v>337.6300342756085</v>
       </c>
       <c r="G38" t="n">
-        <v>341.6757141873506</v>
+        <v>341.6757141873509</v>
       </c>
       <c r="H38" t="n">
-        <v>225.3617529212177</v>
+        <v>225.3617529212179</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>39.94175032207354</v>
+        <v>39.94175032207329</v>
       </c>
       <c r="T38" t="n">
-        <v>134.6719586735173</v>
+        <v>134.6719586735176</v>
       </c>
       <c r="U38" t="n">
-        <v>181.7491604928</v>
+        <v>181.7491604927994</v>
       </c>
       <c r="V38" t="n">
-        <v>258.5062470040321</v>
+        <v>258.5062470040323</v>
       </c>
       <c r="W38" t="n">
-        <v>279.9949572513102</v>
+        <v>279.9949572513104</v>
       </c>
       <c r="X38" t="n">
-        <v>300.4850892123662</v>
+        <v>300.4850892123665</v>
       </c>
       <c r="Y38" t="n">
-        <v>316.9919271899508</v>
+        <v>316.991927189951</v>
       </c>
     </row>
     <row r="39">
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>110.5859687158345</v>
+        <v>110.5859687158347</v>
       </c>
       <c r="C40" t="n">
-        <v>98.00080963252505</v>
+        <v>98.00080963252528</v>
       </c>
       <c r="D40" t="n">
-        <v>79.36946155210957</v>
+        <v>79.3694615521098</v>
       </c>
       <c r="E40" t="n">
-        <v>77.18795118046638</v>
+        <v>77.18795118046661</v>
       </c>
       <c r="F40" t="n">
-        <v>76.17503655682846</v>
+        <v>76.17503655682869</v>
       </c>
       <c r="G40" t="n">
-        <v>96.77979679292544</v>
+        <v>96.77979679292567</v>
       </c>
       <c r="H40" t="n">
-        <v>75.509003448218</v>
+        <v>75.50900344821822</v>
       </c>
       <c r="I40" t="n">
-        <v>27.10640894373531</v>
+        <v>27.10640894373554</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>19.68614120394454</v>
+        <v>19.68614120394477</v>
       </c>
       <c r="S40" t="n">
-        <v>120.5230138653391</v>
+        <v>120.5230138653393</v>
       </c>
       <c r="T40" t="n">
-        <v>150.3029378100664</v>
+        <v>150.3029378100666</v>
       </c>
       <c r="U40" t="n">
-        <v>216.96582673951</v>
+        <v>216.9658267395103</v>
       </c>
       <c r="V40" t="n">
-        <v>182.8916318577252</v>
+        <v>182.8916318577254</v>
       </c>
       <c r="W40" t="n">
-        <v>217.2769868704882</v>
+        <v>217.2769868704884</v>
       </c>
       <c r="X40" t="n">
-        <v>156.4636439229344</v>
+        <v>156.4636439229346</v>
       </c>
       <c r="Y40" t="n">
-        <v>149.338641885992</v>
+        <v>149.3386418859922</v>
       </c>
     </row>
     <row r="41">
@@ -3742,22 +3742,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C41" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E41" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G41" t="n">
-        <v>363.9465890348608</v>
+        <v>244.6347932915418</v>
       </c>
       <c r="H41" t="n">
-        <v>241.4397165414207</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U41" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V41" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X41" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,25 +3900,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797657</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433864</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572817</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I43" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145472</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128497</v>
@@ -3954,7 +3954,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U43" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870207</v>
       </c>
       <c r="V43" t="n">
         <v>205.1625067052354</v>
@@ -3963,7 +3963,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X43" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
         <v>171.6095167335022</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C44" t="n">
-        <v>46.08353999181158</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D44" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E44" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F44" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G44" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H44" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958326</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U44" t="n">
-        <v>204.0200353403094</v>
+        <v>77.12881875749828</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>302.2658320988204</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y44" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="45">
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247631</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797657</v>
+        <v>99.45882602797666</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433864</v>
+        <v>98.44591140433873</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572919</v>
+        <v>97.77987829572827</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124558</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145473</v>
+        <v>41.95701605145483</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128483</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
   </sheetData>
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="C8" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="D8" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="E8" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="F8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="G8" t="n">
-        <v>13.6131814684388</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="H8" t="n">
-        <v>13.6131814684388</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="I8" t="n">
         <v>7.495584408540386</v>
@@ -4807,13 +4807,13 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M8" t="n">
-        <v>7.082327113962777</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N8" t="n">
         <v>13.8896123982571</v>
@@ -4828,28 +4828,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R8" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="S8" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="T8" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="U8" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="V8" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="W8" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="X8" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="Y8" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.19521781052957</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="C9" t="n">
-        <v>15.19521781052957</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="D9" t="n">
-        <v>15.19521781052957</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="E9" t="n">
-        <v>15.19521781052957</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="F9" t="n">
-        <v>15.19521781052957</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="G9" t="n">
         <v>8.2497170613261</v>
       </c>
       <c r="H9" t="n">
-        <v>1.304216312122629</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="I9" t="n">
         <v>1.304216312122629</v>
@@ -4886,49 +4886,49 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L9" t="n">
-        <v>0.5500836593369149</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5500836593369149</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="N9" t="n">
-        <v>7.082327113962777</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="O9" t="n">
-        <v>13.8896123982571</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P9" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Q9" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="R9" t="n">
-        <v>22.14071855973305</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S9" t="n">
-        <v>22.14071855973305</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T9" t="n">
-        <v>22.14071855973305</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U9" t="n">
-        <v>22.14071855973305</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="V9" t="n">
-        <v>22.14071855973305</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="W9" t="n">
-        <v>22.14071855973305</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="X9" t="n">
-        <v>15.19521781052957</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="Y9" t="n">
-        <v>15.19521781052957</v>
+        <v>8.2497170613261</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5500836593369149</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5500836593369149</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5500836593369149</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5500836593369149</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5500836593369149</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5500836593369149</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5500836593369149</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5500836593369149</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="K10" t="n">
         <v>0.5500836593369149</v>
@@ -4983,31 +4983,31 @@
         <v>24.75525293138463</v>
       </c>
       <c r="Q10" t="n">
-        <v>17.80975218218115</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="R10" t="n">
-        <v>17.80975218218115</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="S10" t="n">
-        <v>17.80975218218115</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="T10" t="n">
-        <v>17.80975218218115</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="U10" t="n">
-        <v>10.86425143297768</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="V10" t="n">
-        <v>3.91875068377421</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="W10" t="n">
-        <v>0.5500836593369149</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="X10" t="n">
-        <v>0.5500836593369149</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.5500836593369149</v>
+        <v>24.75525293138463</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1708.512324451481</v>
+        <v>1655.792118268624</v>
       </c>
       <c r="C11" t="n">
-        <v>1386.999440459143</v>
+        <v>1334.279234276285</v>
       </c>
       <c r="D11" t="n">
-        <v>1386.999440459143</v>
+        <v>1023.463168617608</v>
       </c>
       <c r="E11" t="n">
-        <v>1048.660820808972</v>
+        <v>685.1245489674375</v>
       </c>
       <c r="F11" t="n">
-        <v>685.1245489674377</v>
+        <v>685.1245489674375</v>
       </c>
       <c r="G11" t="n">
-        <v>317.5017317605074</v>
+        <v>317.5017317605073</v>
       </c>
       <c r="H11" t="n">
-        <v>67.36776431734778</v>
+        <v>67.36776431734771</v>
       </c>
       <c r="I11" t="n">
-        <v>67.36776431734778</v>
+        <v>67.36776431734771</v>
       </c>
       <c r="J11" t="n">
         <v>256.2468952763732</v>
@@ -5050,43 +5050,43 @@
         <v>1041.100482214629</v>
       </c>
       <c r="M11" t="n">
-        <v>1616.559133259606</v>
+        <v>1574.632386886553</v>
       </c>
       <c r="N11" t="n">
-        <v>2163.337950318389</v>
+        <v>2121.411203945335</v>
       </c>
       <c r="O11" t="n">
-        <v>2666.310421197726</v>
+        <v>2624.383674824672</v>
       </c>
       <c r="P11" t="n">
-        <v>3061.084787554904</v>
+        <v>3061.084787554901</v>
       </c>
       <c r="Q11" t="n">
-        <v>3309.371149310586</v>
+        <v>3309.371149310583</v>
       </c>
       <c r="R11" t="n">
-        <v>3368.388215867389</v>
+        <v>3368.388215867385</v>
       </c>
       <c r="S11" t="n">
-        <v>3305.547180342557</v>
+        <v>3305.547180342554</v>
       </c>
       <c r="T11" t="n">
-        <v>3305.547180342557</v>
+        <v>3147.019065674849</v>
       </c>
       <c r="U11" t="n">
-        <v>3099.466336564467</v>
+        <v>2940.938221896759</v>
       </c>
       <c r="V11" t="n">
-        <v>3021.687378230316</v>
+        <v>2940.938221896759</v>
       </c>
       <c r="W11" t="n">
-        <v>2716.368355908275</v>
+        <v>2663.648149725417</v>
       </c>
       <c r="X11" t="n">
-        <v>2390.352230595268</v>
+        <v>2337.632024412411</v>
       </c>
       <c r="Y11" t="n">
-        <v>2047.66253156753</v>
+        <v>1994.942325384672</v>
       </c>
     </row>
     <row r="12">
@@ -5096,40 +5096,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>942.3995023662724</v>
+        <v>942.3995023662729</v>
       </c>
       <c r="C12" t="n">
-        <v>767.9464730851454</v>
+        <v>767.946473085146</v>
       </c>
       <c r="D12" t="n">
-        <v>619.0120634238942</v>
+        <v>619.0120634238947</v>
       </c>
       <c r="E12" t="n">
-        <v>459.7746084184387</v>
+        <v>459.7746084184391</v>
       </c>
       <c r="F12" t="n">
-        <v>313.2400504453237</v>
+        <v>313.2400504453241</v>
       </c>
       <c r="G12" t="n">
-        <v>176.8769502779423</v>
+        <v>176.8769502779422</v>
       </c>
       <c r="H12" t="n">
-        <v>86.37505591580982</v>
+        <v>86.37505591580975</v>
       </c>
       <c r="I12" t="n">
-        <v>67.36776431734778</v>
+        <v>67.36776431734771</v>
       </c>
       <c r="J12" t="n">
         <v>161.045033807965</v>
       </c>
       <c r="K12" t="n">
-        <v>399.3092327883121</v>
+        <v>399.3092327883122</v>
       </c>
       <c r="L12" t="n">
-        <v>766.0073931009775</v>
+        <v>766.0073931009777</v>
       </c>
       <c r="M12" t="n">
-        <v>1213.283718323293</v>
+        <v>1213.283718323294</v>
       </c>
       <c r="N12" t="n">
         <v>1686.806761877748</v>
@@ -5138,10 +5138,10 @@
         <v>2097.768041295803</v>
       </c>
       <c r="P12" t="n">
-        <v>2408.267632771905</v>
+        <v>2408.267632771906</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.909190418505</v>
+        <v>2565.909190418506</v>
       </c>
       <c r="R12" t="n">
         <v>2565.764837011021</v>
@@ -5159,13 +5159,13 @@
         <v>1780.463995085029</v>
       </c>
       <c r="W12" t="n">
-        <v>1526.226638356827</v>
+        <v>1526.226638356828</v>
       </c>
       <c r="X12" t="n">
-        <v>1318.375138151294</v>
+        <v>1318.375138151295</v>
       </c>
       <c r="Y12" t="n">
-        <v>1110.61483938634</v>
+        <v>1110.614839386341</v>
       </c>
     </row>
     <row r="13">
@@ -5175,58 +5175,58 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>760.321897690459</v>
+        <v>760.3218976904586</v>
       </c>
       <c r="C13" t="n">
-        <v>638.8353477106253</v>
+        <v>638.835347710625</v>
       </c>
       <c r="D13" t="n">
-        <v>536.1683412463628</v>
+        <v>536.1683412463626</v>
       </c>
       <c r="E13" t="n">
-        <v>435.704880612043</v>
+        <v>435.7048806120428</v>
       </c>
       <c r="F13" t="n">
-        <v>336.2645660622059</v>
+        <v>336.2645660622057</v>
       </c>
       <c r="G13" t="n">
-        <v>216.0113623849981</v>
+        <v>216.011362384998</v>
       </c>
       <c r="H13" t="n">
         <v>117.2438085509291</v>
       </c>
       <c r="I13" t="n">
-        <v>67.36776431734778</v>
+        <v>67.36776431734771</v>
       </c>
       <c r="J13" t="n">
         <v>158.9957820166899</v>
       </c>
       <c r="K13" t="n">
-        <v>409.4883502179725</v>
+        <v>409.4883502179729</v>
       </c>
       <c r="L13" t="n">
-        <v>772.5535339188752</v>
+        <v>772.5535339188755</v>
       </c>
       <c r="M13" t="n">
         <v>1163.215964770831</v>
       </c>
       <c r="N13" t="n">
-        <v>1551.129726729102</v>
+        <v>1551.129726729103</v>
       </c>
       <c r="O13" t="n">
-        <v>1896.964710901922</v>
+        <v>1896.964710901923</v>
       </c>
       <c r="P13" t="n">
         <v>2176.077596587988</v>
       </c>
       <c r="Q13" t="n">
-        <v>2300.193277992909</v>
+        <v>2300.19327799291</v>
       </c>
       <c r="R13" t="n">
         <v>2257.812453698511</v>
       </c>
       <c r="S13" t="n">
-        <v>2113.57620247341</v>
+        <v>2113.576202473411</v>
       </c>
       <c r="T13" t="n">
         <v>1939.25921999101</v>
@@ -5244,7 +5244,7 @@
         <v>1067.863675768082</v>
       </c>
       <c r="Y13" t="n">
-        <v>894.5207295726254</v>
+        <v>894.520729572625</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1845.367727417874</v>
+        <v>2019.328390110158</v>
       </c>
       <c r="C14" t="n">
-        <v>1523.854843425535</v>
+        <v>1697.81550611782</v>
       </c>
       <c r="D14" t="n">
-        <v>1213.038777766858</v>
+        <v>1386.999440459143</v>
       </c>
       <c r="E14" t="n">
         <v>1048.660820808972</v>
       </c>
       <c r="F14" t="n">
-        <v>685.1245489674377</v>
+        <v>685.1245489674375</v>
       </c>
       <c r="G14" t="n">
-        <v>317.5017317605074</v>
+        <v>317.5017317605073</v>
       </c>
       <c r="H14" t="n">
-        <v>67.36776431734778</v>
+        <v>67.36776431734771</v>
       </c>
       <c r="I14" t="n">
-        <v>67.36776431734778</v>
+        <v>67.36776431734771</v>
       </c>
       <c r="J14" t="n">
-        <v>256.2468952763732</v>
+        <v>298.1736416494232</v>
       </c>
       <c r="K14" t="n">
-        <v>590.0662689662197</v>
+        <v>631.9930153392697</v>
       </c>
       <c r="L14" t="n">
-        <v>1041.100482214629</v>
+        <v>1083.027228587679</v>
       </c>
       <c r="M14" t="n">
-        <v>1616.559133259606</v>
+        <v>1616.559133259603</v>
       </c>
       <c r="N14" t="n">
-        <v>2163.337950318389</v>
+        <v>2163.337950318386</v>
       </c>
       <c r="O14" t="n">
-        <v>2666.310421197726</v>
+        <v>2666.310421197722</v>
       </c>
       <c r="P14" t="n">
-        <v>3061.084787554904</v>
+        <v>3061.084787554901</v>
       </c>
       <c r="Q14" t="n">
-        <v>3309.371149310586</v>
+        <v>3309.371149310583</v>
       </c>
       <c r="R14" t="n">
-        <v>3368.388215867389</v>
+        <v>3368.388215867385</v>
       </c>
       <c r="S14" t="n">
-        <v>3305.547180342557</v>
+        <v>3368.388215867385</v>
       </c>
       <c r="T14" t="n">
-        <v>3305.547180342557</v>
+        <v>3368.388215867385</v>
       </c>
       <c r="U14" t="n">
-        <v>3099.466336564467</v>
+        <v>3162.307372089295</v>
       </c>
       <c r="V14" t="n">
-        <v>2815.85308216897</v>
+        <v>2993.353236772944</v>
       </c>
       <c r="W14" t="n">
-        <v>2510.534059846929</v>
+        <v>2688.034214450903</v>
       </c>
       <c r="X14" t="n">
-        <v>2184.517934533922</v>
+        <v>2362.018089137896</v>
       </c>
       <c r="Y14" t="n">
-        <v>2184.517934533922</v>
+        <v>2019.328390110158</v>
       </c>
     </row>
     <row r="15">
@@ -5333,34 +5333,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>942.3995023662731</v>
+        <v>942.3995023662729</v>
       </c>
       <c r="C15" t="n">
-        <v>767.9464730851461</v>
+        <v>767.946473085146</v>
       </c>
       <c r="D15" t="n">
-        <v>619.0120634238948</v>
+        <v>619.0120634238947</v>
       </c>
       <c r="E15" t="n">
-        <v>459.7746084184393</v>
+        <v>459.7746084184391</v>
       </c>
       <c r="F15" t="n">
-        <v>313.2400504453243</v>
+        <v>313.2400504453241</v>
       </c>
       <c r="G15" t="n">
-        <v>176.8769502779424</v>
+        <v>176.8769502779422</v>
       </c>
       <c r="H15" t="n">
-        <v>86.37505591580992</v>
+        <v>86.37505591580975</v>
       </c>
       <c r="I15" t="n">
-        <v>67.36776431734778</v>
+        <v>67.36776431734771</v>
       </c>
       <c r="J15" t="n">
-        <v>161.0450338079651</v>
+        <v>161.045033807965</v>
       </c>
       <c r="K15" t="n">
-        <v>399.3092327883123</v>
+        <v>399.3092327883122</v>
       </c>
       <c r="L15" t="n">
         <v>766.0073931009777</v>
@@ -5384,10 +5384,10 @@
         <v>2565.764837011021</v>
       </c>
       <c r="S15" t="n">
-        <v>2436.326950504501</v>
+        <v>2436.3269505045</v>
       </c>
       <c r="T15" t="n">
-        <v>2243.683950182357</v>
+        <v>2243.683950182356</v>
       </c>
       <c r="U15" t="n">
         <v>2015.616103316772</v>
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>760.321897690459</v>
+        <v>760.3218976904586</v>
       </c>
       <c r="C16" t="n">
-        <v>638.8353477106253</v>
+        <v>638.835347710625</v>
       </c>
       <c r="D16" t="n">
-        <v>536.1683412463628</v>
+        <v>536.1683412463626</v>
       </c>
       <c r="E16" t="n">
-        <v>435.704880612043</v>
+        <v>435.7048806120428</v>
       </c>
       <c r="F16" t="n">
-        <v>336.2645660622059</v>
+        <v>336.2645660622057</v>
       </c>
       <c r="G16" t="n">
-        <v>216.0113623849981</v>
+        <v>216.011362384998</v>
       </c>
       <c r="H16" t="n">
-        <v>117.2438085509292</v>
+        <v>117.2438085509291</v>
       </c>
       <c r="I16" t="n">
-        <v>67.36776431734778</v>
+        <v>67.36776431734771</v>
       </c>
       <c r="J16" t="n">
-        <v>158.9957820166899</v>
+        <v>158.9957820166896</v>
       </c>
       <c r="K16" t="n">
-        <v>409.4883502179729</v>
+        <v>409.4883502179727</v>
       </c>
       <c r="L16" t="n">
-        <v>772.5535339188762</v>
+        <v>772.5535339188755</v>
       </c>
       <c r="M16" t="n">
-        <v>1163.215964770832</v>
+        <v>1163.215964770831</v>
       </c>
       <c r="N16" t="n">
-        <v>1551.129726729103</v>
+        <v>1551.129726729102</v>
       </c>
       <c r="O16" t="n">
-        <v>1896.964710901923</v>
+        <v>1896.964710901922</v>
       </c>
       <c r="P16" t="n">
-        <v>2176.077596587989</v>
+        <v>2176.077596587988</v>
       </c>
       <c r="Q16" t="n">
         <v>2300.19327799291</v>
@@ -5472,7 +5472,7 @@
         <v>1697.605986064727</v>
       </c>
       <c r="V16" t="n">
-        <v>1490.371130806914</v>
+        <v>1490.371130806913</v>
       </c>
       <c r="W16" t="n">
         <v>1248.403593718026</v>
@@ -5481,7 +5481,7 @@
         <v>1067.863675768082</v>
       </c>
       <c r="Y16" t="n">
-        <v>894.5207295726254</v>
+        <v>894.520729572625</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1910.529416178924</v>
+        <v>1910.529416178923</v>
       </c>
       <c r="C17" t="n">
         <v>1608.517597767813</v>
@@ -5500,67 +5500,67 @@
         <v>1317.202597690364</v>
       </c>
       <c r="E17" t="n">
-        <v>998.3650436214211</v>
+        <v>998.3650436214207</v>
       </c>
       <c r="F17" t="n">
-        <v>654.3298373611149</v>
+        <v>654.3298373611145</v>
       </c>
       <c r="G17" t="n">
-        <v>306.2080857354127</v>
+        <v>306.2080857354125</v>
       </c>
       <c r="H17" t="n">
-        <v>75.57518387348115</v>
+        <v>75.57518387348112</v>
       </c>
       <c r="I17" t="n">
-        <v>75.57518387348115</v>
+        <v>75.57518387348112</v>
       </c>
       <c r="J17" t="n">
-        <v>264.4543148325066</v>
+        <v>389.9638983663263</v>
       </c>
       <c r="K17" t="n">
-        <v>598.273688522353</v>
+        <v>723.7832720561728</v>
       </c>
       <c r="L17" t="n">
-        <v>1462.792504175708</v>
+        <v>1174.817485304582</v>
       </c>
       <c r="M17" t="n">
-        <v>2026.930111066275</v>
+        <v>1708.349389976506</v>
       </c>
       <c r="N17" t="n">
-        <v>2573.708928125058</v>
+        <v>2255.128207035289</v>
       </c>
       <c r="O17" t="n">
-        <v>3076.681399004395</v>
+        <v>2758.100677914626</v>
       </c>
       <c r="P17" t="n">
-        <v>3471.455765361573</v>
+        <v>3471.455765361572</v>
       </c>
       <c r="Q17" t="n">
-        <v>3719.742127117255</v>
+        <v>3719.742127117254</v>
       </c>
       <c r="R17" t="n">
-        <v>3778.759193674058</v>
+        <v>3778.759193674056</v>
       </c>
       <c r="S17" t="n">
-        <v>3735.419223730454</v>
+        <v>3735.419223730453</v>
       </c>
       <c r="T17" t="n">
-        <v>3596.392174643977</v>
+        <v>3596.392174643976</v>
       </c>
       <c r="U17" t="n">
-        <v>3409.812396447115</v>
+        <v>3409.812396447114</v>
       </c>
       <c r="V17" t="n">
-        <v>3145.700207632846</v>
+        <v>3145.700207632844</v>
       </c>
       <c r="W17" t="n">
-        <v>2859.882250892033</v>
+        <v>2859.882250892032</v>
       </c>
       <c r="X17" t="n">
-        <v>2553.367191160255</v>
+        <v>2553.367191160253</v>
       </c>
       <c r="Y17" t="n">
-        <v>2230.178557713744</v>
+        <v>2230.178557713743</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>950.6069219224062</v>
+        <v>950.6069219224063</v>
       </c>
       <c r="C18" t="n">
-        <v>776.1538926412792</v>
+        <v>776.1538926412793</v>
       </c>
       <c r="D18" t="n">
-        <v>627.2194829800279</v>
+        <v>627.219482980028</v>
       </c>
       <c r="E18" t="n">
-        <v>467.9820279745724</v>
+        <v>467.9820279745726</v>
       </c>
       <c r="F18" t="n">
-        <v>321.4474700014574</v>
+        <v>321.4474700014575</v>
       </c>
       <c r="G18" t="n">
-        <v>185.0843698340755</v>
+        <v>185.0843698340756</v>
       </c>
       <c r="H18" t="n">
-        <v>94.58247547194304</v>
+        <v>94.58247547194316</v>
       </c>
       <c r="I18" t="n">
-        <v>75.57518387348115</v>
+        <v>75.57518387348112</v>
       </c>
       <c r="J18" t="n">
         <v>169.2524533640985</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>632.0218581779961</v>
+        <v>632.0218581779949</v>
       </c>
       <c r="C19" t="n">
-        <v>530.0363737793905</v>
+        <v>530.0363737793895</v>
       </c>
       <c r="D19" t="n">
-        <v>446.870432896356</v>
+        <v>446.8704328963552</v>
       </c>
       <c r="E19" t="n">
-        <v>365.9080378432642</v>
+        <v>365.9080378432636</v>
       </c>
       <c r="F19" t="n">
-        <v>285.9687888746552</v>
+        <v>285.9687888746546</v>
       </c>
       <c r="G19" t="n">
-        <v>185.2166507786754</v>
+        <v>185.2166507786751</v>
       </c>
       <c r="H19" t="n">
-        <v>105.9501625258345</v>
+        <v>105.9501625258343</v>
       </c>
       <c r="I19" t="n">
-        <v>75.57518387348115</v>
+        <v>75.57518387348112</v>
       </c>
       <c r="J19" t="n">
         <v>120.6978163204167</v>
       </c>
       <c r="K19" t="n">
-        <v>384.7110319888978</v>
+        <v>324.684999269293</v>
       </c>
       <c r="L19" t="n">
-        <v>701.2708304373939</v>
+        <v>641.2447977177892</v>
       </c>
       <c r="M19" t="n">
-        <v>1045.427876036943</v>
+        <v>1045.42787603694</v>
       </c>
       <c r="N19" t="n">
-        <v>1386.836252742808</v>
+        <v>1386.836252742805</v>
       </c>
       <c r="O19" t="n">
-        <v>1686.165851663221</v>
+        <v>1686.165851663218</v>
       </c>
       <c r="P19" t="n">
-        <v>1918.77335209688</v>
+        <v>1918.773352096877</v>
       </c>
       <c r="Q19" t="n">
-        <v>1996.383648249395</v>
+        <v>1996.383648249392</v>
       </c>
       <c r="R19" t="n">
-        <v>1973.503889536225</v>
+        <v>1973.503889536222</v>
       </c>
       <c r="S19" t="n">
-        <v>1848.768703892352</v>
+        <v>1848.76870389235</v>
       </c>
       <c r="T19" t="n">
-        <v>1693.952786991179</v>
+        <v>1693.952786991177</v>
       </c>
       <c r="U19" t="n">
-        <v>1471.800618646124</v>
+        <v>1471.800618646122</v>
       </c>
       <c r="V19" t="n">
-        <v>1284.066828969539</v>
+        <v>1284.066828969537</v>
       </c>
       <c r="W19" t="n">
-        <v>1061.600357461879</v>
+        <v>1061.600357461878</v>
       </c>
       <c r="X19" t="n">
-        <v>900.5615050931633</v>
+        <v>900.5615050931618</v>
       </c>
       <c r="Y19" t="n">
-        <v>746.7196244789345</v>
+        <v>746.7196244789332</v>
       </c>
     </row>
     <row r="20">
@@ -5737,67 +5737,67 @@
         <v>1317.202597690364</v>
       </c>
       <c r="E20" t="n">
-        <v>998.3650436214208</v>
+        <v>998.3650436214207</v>
       </c>
       <c r="F20" t="n">
         <v>654.3298373611145</v>
       </c>
       <c r="G20" t="n">
-        <v>306.2080857354127</v>
+        <v>306.2080857354125</v>
       </c>
       <c r="H20" t="n">
-        <v>75.57518387348115</v>
+        <v>75.57518387348112</v>
       </c>
       <c r="I20" t="n">
-        <v>75.57518387348115</v>
+        <v>75.57518387348112</v>
       </c>
       <c r="J20" t="n">
-        <v>264.4543148325066</v>
+        <v>431.8599638528596</v>
       </c>
       <c r="K20" t="n">
-        <v>628.8793907409961</v>
+        <v>765.6793375427061</v>
       </c>
       <c r="L20" t="n">
-        <v>1493.398206394351</v>
+        <v>1216.713550791115</v>
       </c>
       <c r="M20" t="n">
-        <v>2026.930111066275</v>
+        <v>1961.870855392021</v>
       </c>
       <c r="N20" t="n">
-        <v>2573.708928125058</v>
+        <v>2508.649672450804</v>
       </c>
       <c r="O20" t="n">
-        <v>3076.681399004395</v>
+        <v>3011.622143330141</v>
       </c>
       <c r="P20" t="n">
-        <v>3471.455765361573</v>
+        <v>3406.396509687319</v>
       </c>
       <c r="Q20" t="n">
-        <v>3719.742127117255</v>
+        <v>3654.682871443001</v>
       </c>
       <c r="R20" t="n">
-        <v>3778.759193674058</v>
+        <v>3778.759193674056</v>
       </c>
       <c r="S20" t="n">
-        <v>3735.419223730454</v>
+        <v>3735.419223730452</v>
       </c>
       <c r="T20" t="n">
-        <v>3596.392174643977</v>
+        <v>3596.392174643976</v>
       </c>
       <c r="U20" t="n">
-        <v>3409.812396447115</v>
+        <v>3409.812396447114</v>
       </c>
       <c r="V20" t="n">
-        <v>3145.700207632846</v>
+        <v>3145.700207632844</v>
       </c>
       <c r="W20" t="n">
-        <v>2859.882250892033</v>
+        <v>2859.882250892032</v>
       </c>
       <c r="X20" t="n">
-        <v>2553.367191160254</v>
+        <v>2553.367191160253</v>
       </c>
       <c r="Y20" t="n">
-        <v>2230.178557713744</v>
+        <v>2230.178557713743</v>
       </c>
     </row>
     <row r="21">
@@ -5822,13 +5822,13 @@
         <v>321.4474700014575</v>
       </c>
       <c r="G21" t="n">
-        <v>185.0843698340757</v>
+        <v>185.0843698340756</v>
       </c>
       <c r="H21" t="n">
-        <v>94.58247547194318</v>
+        <v>94.58247547194316</v>
       </c>
       <c r="I21" t="n">
-        <v>75.57518387348115</v>
+        <v>75.57518387348112</v>
       </c>
       <c r="J21" t="n">
         <v>169.2524533640985</v>
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>632.0218581779961</v>
+        <v>632.0218581779949</v>
       </c>
       <c r="C22" t="n">
-        <v>530.0363737793905</v>
+        <v>530.0363737793895</v>
       </c>
       <c r="D22" t="n">
-        <v>446.870432896356</v>
+        <v>446.8704328963552</v>
       </c>
       <c r="E22" t="n">
-        <v>365.9080378432642</v>
+        <v>365.9080378432636</v>
       </c>
       <c r="F22" t="n">
-        <v>285.9687888746552</v>
+        <v>285.9687888746546</v>
       </c>
       <c r="G22" t="n">
-        <v>185.2166507786754</v>
+        <v>185.2166507786751</v>
       </c>
       <c r="H22" t="n">
-        <v>105.9501625258345</v>
+        <v>105.9501625258343</v>
       </c>
       <c r="I22" t="n">
-        <v>75.57518387348115</v>
+        <v>75.57518387348112</v>
       </c>
       <c r="J22" t="n">
         <v>120.6978163204167</v>
       </c>
       <c r="K22" t="n">
-        <v>324.6849992692931</v>
+        <v>324.684999269293</v>
       </c>
       <c r="L22" t="n">
         <v>641.2447977177892</v>
@@ -5922,40 +5922,40 @@
         <v>985.4018433173383</v>
       </c>
       <c r="N22" t="n">
-        <v>1326.810220023203</v>
+        <v>1386.836252742805</v>
       </c>
       <c r="O22" t="n">
-        <v>1626.139818943616</v>
+        <v>1686.165851663218</v>
       </c>
       <c r="P22" t="n">
-        <v>1858.747319377276</v>
+        <v>1918.773352096877</v>
       </c>
       <c r="Q22" t="n">
-        <v>1996.383648249395</v>
+        <v>1996.383648249392</v>
       </c>
       <c r="R22" t="n">
-        <v>1973.503889536225</v>
+        <v>1973.503889536222</v>
       </c>
       <c r="S22" t="n">
-        <v>1848.768703892352</v>
+        <v>1848.76870389235</v>
       </c>
       <c r="T22" t="n">
-        <v>1693.952786991179</v>
+        <v>1693.952786991177</v>
       </c>
       <c r="U22" t="n">
-        <v>1471.800618646124</v>
+        <v>1471.800618646122</v>
       </c>
       <c r="V22" t="n">
-        <v>1284.066828969539</v>
+        <v>1284.066828969537</v>
       </c>
       <c r="W22" t="n">
-        <v>1061.600357461879</v>
+        <v>1061.600357461878</v>
       </c>
       <c r="X22" t="n">
-        <v>900.5615050931633</v>
+        <v>900.5615050931618</v>
       </c>
       <c r="Y22" t="n">
-        <v>746.7196244789345</v>
+        <v>746.7196244789332</v>
       </c>
     </row>
     <row r="23">
@@ -5977,64 +5977,64 @@
         <v>998.3650436214207</v>
       </c>
       <c r="F23" t="n">
-        <v>654.3298373611149</v>
+        <v>654.3298373611145</v>
       </c>
       <c r="G23" t="n">
-        <v>306.2080857354127</v>
+        <v>306.2080857354125</v>
       </c>
       <c r="H23" t="n">
-        <v>75.57518387348115</v>
+        <v>75.57518387348112</v>
       </c>
       <c r="I23" t="n">
-        <v>75.57518387348115</v>
+        <v>75.57518387348112</v>
       </c>
       <c r="J23" t="n">
-        <v>264.4543148325066</v>
+        <v>431.8599638528596</v>
       </c>
       <c r="K23" t="n">
-        <v>598.273688522353</v>
+        <v>765.6793375427061</v>
       </c>
       <c r="L23" t="n">
-        <v>1049.307901770762</v>
+        <v>1216.713550791115</v>
       </c>
       <c r="M23" t="n">
-        <v>1961.870855392023</v>
+        <v>1961.870855392021</v>
       </c>
       <c r="N23" t="n">
-        <v>2508.649672450805</v>
+        <v>2508.649672450804</v>
       </c>
       <c r="O23" t="n">
-        <v>3011.622143330142</v>
+        <v>3011.622143330141</v>
       </c>
       <c r="P23" t="n">
-        <v>3406.39650968732</v>
+        <v>3406.396509687319</v>
       </c>
       <c r="Q23" t="n">
-        <v>3654.682871443003</v>
+        <v>3654.682871443001</v>
       </c>
       <c r="R23" t="n">
-        <v>3778.759193674058</v>
+        <v>3778.759193674056</v>
       </c>
       <c r="S23" t="n">
-        <v>3735.419223730454</v>
+        <v>3735.419223730453</v>
       </c>
       <c r="T23" t="n">
-        <v>3596.392174643977</v>
+        <v>3596.392174643976</v>
       </c>
       <c r="U23" t="n">
-        <v>3409.812396447115</v>
+        <v>3409.812396447114</v>
       </c>
       <c r="V23" t="n">
-        <v>3145.700207632846</v>
+        <v>3145.700207632845</v>
       </c>
       <c r="W23" t="n">
-        <v>2859.882250892033</v>
+        <v>2859.882250892032</v>
       </c>
       <c r="X23" t="n">
         <v>2553.367191160254</v>
       </c>
       <c r="Y23" t="n">
-        <v>2230.178557713744</v>
+        <v>2230.178557713743</v>
       </c>
     </row>
     <row r="24">
@@ -6059,13 +6059,13 @@
         <v>321.4474700014575</v>
       </c>
       <c r="G24" t="n">
-        <v>185.0843698340757</v>
+        <v>185.0843698340756</v>
       </c>
       <c r="H24" t="n">
-        <v>94.58247547194318</v>
+        <v>94.58247547194316</v>
       </c>
       <c r="I24" t="n">
-        <v>75.57518387348115</v>
+        <v>75.57518387348112</v>
       </c>
       <c r="J24" t="n">
         <v>169.2524533640985</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>632.0218581779961</v>
+        <v>632.0218581779949</v>
       </c>
       <c r="C25" t="n">
-        <v>530.0363737793905</v>
+        <v>530.0363737793895</v>
       </c>
       <c r="D25" t="n">
-        <v>446.870432896356</v>
+        <v>446.8704328963552</v>
       </c>
       <c r="E25" t="n">
-        <v>365.9080378432642</v>
+        <v>365.9080378432636</v>
       </c>
       <c r="F25" t="n">
-        <v>285.9687888746552</v>
+        <v>285.9687888746546</v>
       </c>
       <c r="G25" t="n">
-        <v>185.2166507786754</v>
+        <v>185.2166507786751</v>
       </c>
       <c r="H25" t="n">
-        <v>105.9501625258345</v>
+        <v>105.9501625258343</v>
       </c>
       <c r="I25" t="n">
-        <v>75.57518387348115</v>
+        <v>75.57518387348112</v>
       </c>
       <c r="J25" t="n">
         <v>120.6978163204167</v>
       </c>
       <c r="K25" t="n">
-        <v>324.6849992692931</v>
+        <v>324.684999269293</v>
       </c>
       <c r="L25" t="n">
         <v>641.2447977177892</v>
@@ -6159,40 +6159,40 @@
         <v>985.4018433173383</v>
       </c>
       <c r="N25" t="n">
-        <v>1386.836252742808</v>
+        <v>1326.810220023203</v>
       </c>
       <c r="O25" t="n">
-        <v>1686.165851663221</v>
+        <v>1626.139818943616</v>
       </c>
       <c r="P25" t="n">
-        <v>1918.77335209688</v>
+        <v>1858.747319377276</v>
       </c>
       <c r="Q25" t="n">
-        <v>1996.383648249395</v>
+        <v>1996.383648249392</v>
       </c>
       <c r="R25" t="n">
-        <v>1973.503889536225</v>
+        <v>1973.503889536222</v>
       </c>
       <c r="S25" t="n">
-        <v>1848.768703892352</v>
+        <v>1848.76870389235</v>
       </c>
       <c r="T25" t="n">
-        <v>1693.952786991179</v>
+        <v>1693.952786991177</v>
       </c>
       <c r="U25" t="n">
-        <v>1471.800618646124</v>
+        <v>1471.800618646122</v>
       </c>
       <c r="V25" t="n">
-        <v>1284.066828969539</v>
+        <v>1284.066828969537</v>
       </c>
       <c r="W25" t="n">
-        <v>1061.600357461879</v>
+        <v>1061.600357461878</v>
       </c>
       <c r="X25" t="n">
-        <v>900.5615050931633</v>
+        <v>900.5615050931618</v>
       </c>
       <c r="Y25" t="n">
-        <v>746.7196244789345</v>
+        <v>746.7196244789332</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2067.381871868335</v>
+        <v>2067.381871868336</v>
       </c>
       <c r="C26" t="n">
         <v>1740.416253688455</v>
@@ -6217,7 +6217,7 @@
         <v>711.3670939754464</v>
       </c>
       <c r="G26" t="n">
-        <v>338.2915425809741</v>
+        <v>338.2915425809742</v>
       </c>
       <c r="H26" t="n">
         <v>82.70484095027261</v>
@@ -6226,28 +6226,28 @@
         <v>82.70484095027261</v>
       </c>
       <c r="J26" t="n">
-        <v>271.583971909298</v>
+        <v>438.9896209296511</v>
       </c>
       <c r="K26" t="n">
-        <v>605.4033455991446</v>
+        <v>772.8089946194975</v>
       </c>
       <c r="L26" t="n">
-        <v>1056.437558847553</v>
+        <v>1223.843207867906</v>
       </c>
       <c r="M26" t="n">
-        <v>2034.987861677382</v>
+        <v>1757.375112539831</v>
       </c>
       <c r="N26" t="n">
-        <v>2930.191781964631</v>
+        <v>2304.153929598613</v>
       </c>
       <c r="O26" t="n">
-        <v>3433.164252843967</v>
+        <v>2839.332435326642</v>
       </c>
       <c r="P26" t="n">
-        <v>3827.938619201146</v>
+        <v>3552.687522773587</v>
       </c>
       <c r="Q26" t="n">
-        <v>4076.224980956828</v>
+        <v>4011.165725282575</v>
       </c>
       <c r="R26" t="n">
         <v>4135.24204751363</v>
@@ -6259,19 +6259,19 @@
         <v>3902.96742894601</v>
       </c>
       <c r="U26" t="n">
-        <v>3691.433850980377</v>
+        <v>3691.433850980378</v>
       </c>
       <c r="V26" t="n">
         <v>3402.367862397338</v>
       </c>
       <c r="W26" t="n">
-        <v>3091.596105887755</v>
+        <v>3091.596105887756</v>
       </c>
       <c r="X26" t="n">
-        <v>2760.127246387206</v>
+        <v>2760.127246387207</v>
       </c>
       <c r="Y26" t="n">
-        <v>2411.984813171925</v>
+        <v>2411.984813171927</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>957.7365789991979</v>
+        <v>957.7365789991978</v>
       </c>
       <c r="C27" t="n">
-        <v>783.283549718071</v>
+        <v>783.2835497180708</v>
       </c>
       <c r="D27" t="n">
-        <v>634.3491400568197</v>
+        <v>634.3491400568196</v>
       </c>
       <c r="E27" t="n">
-        <v>475.1116850513642</v>
+        <v>475.111685051364</v>
       </c>
       <c r="F27" t="n">
-        <v>328.5771270782492</v>
+        <v>328.577127078249</v>
       </c>
       <c r="G27" t="n">
-        <v>192.2140269108673</v>
+        <v>192.2140269108671</v>
       </c>
       <c r="H27" t="n">
-        <v>101.7121325487348</v>
+        <v>101.7121325487346</v>
       </c>
       <c r="I27" t="n">
         <v>82.70484095027261</v>
@@ -6344,7 +6344,7 @@
         <v>1795.801071717954</v>
       </c>
       <c r="W27" t="n">
-        <v>1541.563714989753</v>
+        <v>1541.563714989752</v>
       </c>
       <c r="X27" t="n">
         <v>1333.71221478422</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>758.4993352150544</v>
+        <v>683.8305684178249</v>
       </c>
       <c r="C28" t="n">
-        <v>631.5600510476788</v>
+        <v>556.8912842504492</v>
       </c>
       <c r="D28" t="n">
-        <v>523.4403103958743</v>
+        <v>448.7715435986447</v>
       </c>
       <c r="E28" t="n">
-        <v>417.5241155740125</v>
+        <v>342.8553487767828</v>
       </c>
       <c r="F28" t="n">
-        <v>312.6310668366334</v>
+        <v>237.9623000394036</v>
       </c>
       <c r="G28" t="n">
-        <v>186.9251289718836</v>
+        <v>112.2563621746538</v>
       </c>
       <c r="H28" t="n">
         <v>82.70484095027261</v>
@@ -6384,13 +6384,13 @@
         <v>82.70484095027261</v>
       </c>
       <c r="J28" t="n">
-        <v>168.9886338724049</v>
+        <v>168.9886338724048</v>
       </c>
       <c r="K28" t="n">
-        <v>414.1369772964779</v>
+        <v>414.1369772964778</v>
       </c>
       <c r="L28" t="n">
-        <v>771.8579362201708</v>
+        <v>771.8579362201706</v>
       </c>
       <c r="M28" t="n">
         <v>1157.176142294916</v>
@@ -6408,28 +6408,28 @@
         <v>2272.776556408155</v>
       </c>
       <c r="R28" t="n">
-        <v>2272.776556408155</v>
+        <v>2224.942997926214</v>
       </c>
       <c r="S28" t="n">
-        <v>2149.9227793108</v>
+        <v>2075.254012513572</v>
       </c>
       <c r="T28" t="n">
-        <v>1970.153062640858</v>
+        <v>1895.484295843629</v>
       </c>
       <c r="U28" t="n">
-        <v>1723.047094527032</v>
+        <v>1648.378327729804</v>
       </c>
       <c r="V28" t="n">
-        <v>1510.359505081677</v>
+        <v>1435.690738284448</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.939233805248</v>
+        <v>1188.270467008018</v>
       </c>
       <c r="X28" t="n">
-        <v>1076.946581667762</v>
+        <v>1002.277814870532</v>
       </c>
       <c r="Y28" t="n">
-        <v>898.1509012847629</v>
+        <v>823.4821344875334</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1080.356100004523</v>
       </c>
       <c r="F29" t="n">
-        <v>711.3670939754468</v>
+        <v>711.3670939754463</v>
       </c>
       <c r="G29" t="n">
         <v>338.2915425809741</v>
@@ -6463,28 +6463,28 @@
         <v>82.70484095027261</v>
       </c>
       <c r="J29" t="n">
-        <v>271.583971909298</v>
+        <v>438.9896209296511</v>
       </c>
       <c r="K29" t="n">
-        <v>926.3073040445976</v>
+        <v>772.8089946194975</v>
       </c>
       <c r="L29" t="n">
-        <v>1377.341517293006</v>
+        <v>1223.843207867906</v>
       </c>
       <c r="M29" t="n">
-        <v>1910.873421964931</v>
+        <v>1757.375112539831</v>
       </c>
       <c r="N29" t="n">
-        <v>2457.652239023713</v>
+        <v>2304.153929598613</v>
       </c>
       <c r="O29" t="n">
-        <v>3114.5835317542</v>
+        <v>2839.332435326642</v>
       </c>
       <c r="P29" t="n">
-        <v>3827.938619201146</v>
+        <v>3552.687522773587</v>
       </c>
       <c r="Q29" t="n">
-        <v>4076.224980956828</v>
+        <v>4011.165725282575</v>
       </c>
       <c r="R29" t="n">
         <v>4135.24204751363</v>
@@ -6496,16 +6496,16 @@
         <v>3902.96742894601</v>
       </c>
       <c r="U29" t="n">
-        <v>3691.433850980378</v>
+        <v>3691.433850980377</v>
       </c>
       <c r="V29" t="n">
         <v>3402.367862397338</v>
       </c>
       <c r="W29" t="n">
-        <v>3091.596105887756</v>
+        <v>3091.596105887755</v>
       </c>
       <c r="X29" t="n">
-        <v>2760.127246387207</v>
+        <v>2760.127246387206</v>
       </c>
       <c r="Y29" t="n">
         <v>2411.984813171926</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>686.8888294688021</v>
+        <v>683.8305684178259</v>
       </c>
       <c r="C31" t="n">
-        <v>686.8888294688021</v>
+        <v>556.8912842504503</v>
       </c>
       <c r="D31" t="n">
-        <v>578.7690888169976</v>
+        <v>448.7715435986458</v>
       </c>
       <c r="E31" t="n">
-        <v>472.8528939951358</v>
+        <v>342.855348776784</v>
       </c>
       <c r="F31" t="n">
-        <v>367.9598452577567</v>
+        <v>237.9623000394049</v>
       </c>
       <c r="G31" t="n">
-        <v>242.2539073930069</v>
+        <v>237.9623000394049</v>
       </c>
       <c r="H31" t="n">
         <v>138.033619371396</v>
@@ -6645,28 +6645,28 @@
         <v>2272.776556408155</v>
       </c>
       <c r="R31" t="n">
-        <v>2228.001258977191</v>
+        <v>2224.942997926215</v>
       </c>
       <c r="S31" t="n">
-        <v>2078.312273564548</v>
+        <v>2075.254012513572</v>
       </c>
       <c r="T31" t="n">
-        <v>1898.542556894605</v>
+        <v>1895.484295843629</v>
       </c>
       <c r="U31" t="n">
-        <v>1651.43658878078</v>
+        <v>1648.378327729804</v>
       </c>
       <c r="V31" t="n">
-        <v>1438.748999335425</v>
+        <v>1435.690738284449</v>
       </c>
       <c r="W31" t="n">
-        <v>1191.328728058995</v>
+        <v>1188.270467008019</v>
       </c>
       <c r="X31" t="n">
-        <v>1005.336075921509</v>
+        <v>1002.277814870533</v>
       </c>
       <c r="Y31" t="n">
-        <v>826.5403955385106</v>
+        <v>823.4821344875344</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2055.280031362923</v>
+        <v>2055.280031362924</v>
       </c>
       <c r="C32" t="n">
-        <v>1730.239705990722</v>
+        <v>1730.239705990723</v>
       </c>
       <c r="D32" t="n">
         <v>1415.896198952182</v>
       </c>
       <c r="E32" t="n">
-        <v>1074.030137922148</v>
+        <v>1074.030137922149</v>
       </c>
       <c r="F32" t="n">
-        <v>706.9664247007508</v>
+        <v>706.9664247007515</v>
       </c>
       <c r="G32" t="n">
-        <v>335.816166113958</v>
+        <v>335.8161661139581</v>
       </c>
       <c r="H32" t="n">
         <v>82.15475729093571</v>
@@ -6700,28 +6700,28 @@
         <v>82.15475729093571</v>
       </c>
       <c r="J32" t="n">
-        <v>271.0338882499611</v>
+        <v>438.4395372703142</v>
       </c>
       <c r="K32" t="n">
-        <v>604.8532619398077</v>
+        <v>777.5108465013436</v>
       </c>
       <c r="L32" t="n">
-        <v>1469.372077593162</v>
+        <v>1228.545059749752</v>
       </c>
       <c r="M32" t="n">
-        <v>2002.903982265087</v>
+        <v>1762.076964421677</v>
       </c>
       <c r="N32" t="n">
-        <v>2902.687598997785</v>
+        <v>2308.855781480459</v>
       </c>
       <c r="O32" t="n">
-        <v>3405.660069877122</v>
+        <v>2811.828252359796</v>
       </c>
       <c r="P32" t="n">
-        <v>3800.4344362343</v>
+        <v>3525.183339806742</v>
       </c>
       <c r="Q32" t="n">
-        <v>4048.720797989983</v>
+        <v>3983.66154231573</v>
       </c>
       <c r="R32" t="n">
         <v>4107.737864546785</v>
@@ -6733,19 +6733,19 @@
         <v>3879.313831594523</v>
       </c>
       <c r="U32" t="n">
-        <v>3669.705546436569</v>
+        <v>3669.70554643657</v>
       </c>
       <c r="V32" t="n">
-        <v>3382.564850661209</v>
+        <v>3382.56485066121</v>
       </c>
       <c r="W32" t="n">
-        <v>3073.718386959305</v>
+        <v>3073.718386959306</v>
       </c>
       <c r="X32" t="n">
-        <v>2744.174820266436</v>
+        <v>2744.174820266437</v>
       </c>
       <c r="Y32" t="n">
-        <v>2397.957679858834</v>
+        <v>2397.957679858835</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>957.186495339861</v>
+        <v>957.1864953398609</v>
       </c>
       <c r="C33" t="n">
-        <v>782.7334660587341</v>
+        <v>782.7334660587339</v>
       </c>
       <c r="D33" t="n">
-        <v>633.7990563974828</v>
+        <v>633.7990563974827</v>
       </c>
       <c r="E33" t="n">
-        <v>474.5616013920273</v>
+        <v>474.5616013920271</v>
       </c>
       <c r="F33" t="n">
-        <v>328.0270434189123</v>
+        <v>328.0270434189121</v>
       </c>
       <c r="G33" t="n">
-        <v>191.6639432515304</v>
+        <v>191.6639432515302</v>
       </c>
       <c r="H33" t="n">
-        <v>101.1620488893979</v>
+        <v>101.1620488893977</v>
       </c>
       <c r="I33" t="n">
         <v>82.15475729093571</v>
@@ -6800,13 +6800,13 @@
         <v>2423.054625745494</v>
       </c>
       <c r="Q33" t="n">
-        <v>2580.696183392094</v>
+        <v>2580.696183392093</v>
       </c>
       <c r="R33" t="n">
         <v>2580.551829984609</v>
       </c>
       <c r="S33" t="n">
-        <v>2451.113943478089</v>
+        <v>2451.113943478088</v>
       </c>
       <c r="T33" t="n">
         <v>2258.470943155944</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>799.8009803230863</v>
+        <v>715.7039558740528</v>
       </c>
       <c r="C34" t="n">
-        <v>674.7869889633898</v>
+        <v>590.6899645143562</v>
       </c>
       <c r="D34" t="n">
-        <v>568.5925411192646</v>
+        <v>484.4955166702309</v>
       </c>
       <c r="E34" t="n">
-        <v>464.601639105082</v>
+        <v>380.5046146560483</v>
       </c>
       <c r="F34" t="n">
-        <v>361.6338831753822</v>
+        <v>277.5368587263483</v>
       </c>
       <c r="G34" t="n">
-        <v>237.8532381183116</v>
+        <v>237.8532381183117</v>
       </c>
       <c r="H34" t="n">
         <v>135.5582429043799</v>
@@ -6858,13 +6858,13 @@
         <v>82.15475729093571</v>
       </c>
       <c r="J34" t="n">
-        <v>170.3255296938744</v>
+        <v>170.3255296938743</v>
       </c>
       <c r="K34" t="n">
-        <v>417.3608525987538</v>
+        <v>417.3608525987537</v>
       </c>
       <c r="L34" t="n">
-        <v>776.968791003253</v>
+        <v>776.9687910032528</v>
       </c>
       <c r="M34" t="n">
         <v>1164.173976558805</v>
@@ -6873,7 +6873,7 @@
         <v>1548.630493220673</v>
       </c>
       <c r="O34" t="n">
-        <v>1891.00823209709</v>
+        <v>1891.008232097089</v>
       </c>
       <c r="P34" t="n">
         <v>2166.663872486752</v>
@@ -6888,10 +6888,10 @@
         <v>2093.650350316045</v>
       </c>
       <c r="T34" t="n">
-        <v>1915.805926453782</v>
+        <v>1915.805926453781</v>
       </c>
       <c r="U34" t="n">
-        <v>1670.625251147636</v>
+        <v>1670.625251147635</v>
       </c>
       <c r="V34" t="n">
         <v>1459.862954509959</v>
@@ -6903,7 +6903,7 @@
         <v>1030.300616711402</v>
       </c>
       <c r="Y34" t="n">
-        <v>853.4302291360827</v>
+        <v>853.4302291360821</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1891.705162705308</v>
+        <v>1891.705162705309</v>
       </c>
       <c r="C35" t="n">
-        <v>1592.688111892273</v>
+        <v>1592.688111892274</v>
       </c>
       <c r="D35" t="n">
-        <v>1304.367879412899</v>
+        <v>1304.3678794129</v>
       </c>
       <c r="E35" t="n">
-        <v>988.5250929420313</v>
+        <v>988.5250929420317</v>
       </c>
       <c r="F35" t="n">
-        <v>647.4846542798002</v>
+        <v>647.4846542798005</v>
       </c>
       <c r="G35" t="n">
-        <v>302.3576702521731</v>
+        <v>302.3576702521733</v>
       </c>
       <c r="H35" t="n">
-        <v>74.71953598831681</v>
+        <v>74.71953598831686</v>
       </c>
       <c r="I35" t="n">
-        <v>74.71953598831681</v>
+        <v>74.71953598831686</v>
       </c>
       <c r="J35" t="n">
-        <v>263.5986669473423</v>
+        <v>431.0043159676953</v>
       </c>
       <c r="K35" t="n">
-        <v>597.4180406371888</v>
+        <v>764.8236896575418</v>
       </c>
       <c r="L35" t="n">
-        <v>1048.452253885598</v>
+        <v>1215.857902905951</v>
       </c>
       <c r="M35" t="n">
-        <v>1665.566995718291</v>
+        <v>1749.389807577875</v>
       </c>
       <c r="N35" t="n">
-        <v>2212.345812777073</v>
+        <v>2296.168624636658</v>
       </c>
       <c r="O35" t="n">
-        <v>2715.31828365641</v>
+        <v>2799.141095515994</v>
       </c>
       <c r="P35" t="n">
-        <v>3428.673371103356</v>
+        <v>3193.915461873173</v>
       </c>
       <c r="Q35" t="n">
-        <v>3676.959732859038</v>
+        <v>3611.900477184788</v>
       </c>
       <c r="R35" t="n">
-        <v>3735.976799415841</v>
+        <v>3735.976799415843</v>
       </c>
       <c r="S35" t="n">
-        <v>3695.631597070312</v>
+        <v>3695.631597070314</v>
       </c>
       <c r="T35" t="n">
-        <v>3559.599315581911</v>
+        <v>3559.599315581913</v>
       </c>
       <c r="U35" t="n">
-        <v>3376.014304983124</v>
+        <v>3376.014304983126</v>
       </c>
       <c r="V35" t="n">
-        <v>3114.896883766929</v>
+        <v>3114.896883766931</v>
       </c>
       <c r="W35" t="n">
-        <v>2832.073694624192</v>
+        <v>2832.073694624194</v>
       </c>
       <c r="X35" t="n">
-        <v>2528.553402490489</v>
+        <v>2528.55340249049</v>
       </c>
       <c r="Y35" t="n">
-        <v>2208.359536642053</v>
+        <v>2208.359536642055</v>
       </c>
     </row>
     <row r="36">
@@ -7001,28 +7001,28 @@
         <v>626.3638350948638</v>
       </c>
       <c r="E36" t="n">
-        <v>467.1263800894083</v>
+        <v>467.1263800894084</v>
       </c>
       <c r="F36" t="n">
-        <v>320.5918221162932</v>
+        <v>320.5918221162933</v>
       </c>
       <c r="G36" t="n">
-        <v>184.2287219489113</v>
+        <v>184.2287219489114</v>
       </c>
       <c r="H36" t="n">
-        <v>93.72682758677885</v>
+        <v>93.72682758677891</v>
       </c>
       <c r="I36" t="n">
-        <v>74.71953598831681</v>
+        <v>74.71953598831686</v>
       </c>
       <c r="J36" t="n">
-        <v>168.3968054789341</v>
+        <v>168.3968054789342</v>
       </c>
       <c r="K36" t="n">
         <v>406.6610044592813</v>
       </c>
       <c r="L36" t="n">
-        <v>773.3591647719467</v>
+        <v>773.3591647719468</v>
       </c>
       <c r="M36" t="n">
         <v>1220.635489994263</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>610.202837106305</v>
+        <v>610.2028371063066</v>
       </c>
       <c r="C37" t="n">
-        <v>511.2121203057746</v>
+        <v>511.212120305776</v>
       </c>
       <c r="D37" t="n">
-        <v>431.0409470208155</v>
+        <v>431.0409470208166</v>
       </c>
       <c r="E37" t="n">
-        <v>353.0733195657989</v>
+        <v>353.0733195657999</v>
       </c>
       <c r="F37" t="n">
-        <v>276.1288381952651</v>
+        <v>276.1288381952658</v>
       </c>
       <c r="G37" t="n">
-        <v>178.3714676973606</v>
+        <v>178.3714676973611</v>
       </c>
       <c r="H37" t="n">
-        <v>102.0997470425949</v>
+        <v>102.0997470425952</v>
       </c>
       <c r="I37" t="n">
-        <v>74.71953598831681</v>
+        <v>74.71953598831686</v>
       </c>
       <c r="J37" t="n">
-        <v>131.9519195856529</v>
+        <v>119.8421684352524</v>
       </c>
       <c r="K37" t="n">
-        <v>335.9391025345292</v>
+        <v>323.8293513841288</v>
       </c>
       <c r="L37" t="n">
-        <v>652.4989009830254</v>
+        <v>640.389149832625</v>
       </c>
       <c r="M37" t="n">
-        <v>996.6559465825744</v>
+        <v>984.546195432174</v>
       </c>
       <c r="N37" t="n">
-        <v>1338.064323288439</v>
+        <v>1325.954572138039</v>
       </c>
       <c r="O37" t="n">
-        <v>1637.393922208852</v>
+        <v>1625.284171058452</v>
       </c>
       <c r="P37" t="n">
-        <v>1870.001422642512</v>
+        <v>1857.891671492112</v>
       </c>
       <c r="Q37" t="n">
-        <v>1947.611718795027</v>
+        <v>1947.61171879503</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.726727679931</v>
+        <v>1927.726727679935</v>
       </c>
       <c r="S37" t="n">
-        <v>1805.986309634134</v>
+        <v>1805.986309634137</v>
       </c>
       <c r="T37" t="n">
-        <v>1654.165160331037</v>
+        <v>1654.16516033104</v>
       </c>
       <c r="U37" t="n">
-        <v>1435.007759584057</v>
+        <v>1435.00775958406</v>
       </c>
       <c r="V37" t="n">
-        <v>1250.268737505547</v>
+        <v>1250.268737505549</v>
       </c>
       <c r="W37" t="n">
-        <v>1030.797033595963</v>
+        <v>1030.797033595965</v>
       </c>
       <c r="X37" t="n">
-        <v>872.7529488253217</v>
+        <v>872.7529488253238</v>
       </c>
       <c r="Y37" t="n">
-        <v>721.9058358091681</v>
+        <v>721.90583580917</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1891.705162705308</v>
+        <v>1891.705162705309</v>
       </c>
       <c r="C38" t="n">
         <v>1592.688111892273</v>
@@ -7159,67 +7159,67 @@
         <v>1304.367879412899</v>
       </c>
       <c r="E38" t="n">
-        <v>988.5250929420311</v>
+        <v>988.5250929420313</v>
       </c>
       <c r="F38" t="n">
-        <v>647.4846542798001</v>
+        <v>647.4846542798005</v>
       </c>
       <c r="G38" t="n">
-        <v>302.3576702521731</v>
+        <v>302.3576702521733</v>
       </c>
       <c r="H38" t="n">
-        <v>74.71953598831682</v>
+        <v>74.71953598831686</v>
       </c>
       <c r="I38" t="n">
-        <v>74.71953598831682</v>
+        <v>74.71953598831686</v>
       </c>
       <c r="J38" t="n">
-        <v>274.6398720143828</v>
+        <v>390.5111287703222</v>
       </c>
       <c r="K38" t="n">
-        <v>608.4592457042293</v>
+        <v>724.3305024601686</v>
       </c>
       <c r="L38" t="n">
-        <v>1059.493458952638</v>
+        <v>1175.364715708577</v>
       </c>
       <c r="M38" t="n">
-        <v>1984.147716808059</v>
+        <v>1708.896620380502</v>
       </c>
       <c r="N38" t="n">
-        <v>2530.926533866841</v>
+        <v>2255.675437439284</v>
       </c>
       <c r="O38" t="n">
-        <v>3033.899004746178</v>
+        <v>2758.647908318621</v>
       </c>
       <c r="P38" t="n">
-        <v>3428.673371103356</v>
+        <v>3153.4222746758</v>
       </c>
       <c r="Q38" t="n">
-        <v>3676.959732859038</v>
+        <v>3611.900477184788</v>
       </c>
       <c r="R38" t="n">
-        <v>3735.976799415841</v>
+        <v>3735.976799415843</v>
       </c>
       <c r="S38" t="n">
-        <v>3695.631597070312</v>
+        <v>3695.631597070314</v>
       </c>
       <c r="T38" t="n">
-        <v>3559.599315581911</v>
+        <v>3559.599315581913</v>
       </c>
       <c r="U38" t="n">
-        <v>3376.014304983123</v>
+        <v>3376.014304983125</v>
       </c>
       <c r="V38" t="n">
-        <v>3114.896883766929</v>
+        <v>3114.896883766931</v>
       </c>
       <c r="W38" t="n">
-        <v>2832.073694624191</v>
+        <v>2832.073694624193</v>
       </c>
       <c r="X38" t="n">
-        <v>2528.553402490488</v>
+        <v>2528.55340249049</v>
       </c>
       <c r="Y38" t="n">
-        <v>2208.359536642053</v>
+        <v>2208.359536642054</v>
       </c>
     </row>
     <row r="39">
@@ -7238,28 +7238,28 @@
         <v>626.3638350948638</v>
       </c>
       <c r="E39" t="n">
-        <v>467.1263800894083</v>
+        <v>467.1263800894084</v>
       </c>
       <c r="F39" t="n">
-        <v>320.5918221162932</v>
+        <v>320.5918221162933</v>
       </c>
       <c r="G39" t="n">
-        <v>184.2287219489113</v>
+        <v>184.2287219489114</v>
       </c>
       <c r="H39" t="n">
-        <v>93.72682758677885</v>
+        <v>93.72682758677891</v>
       </c>
       <c r="I39" t="n">
-        <v>74.71953598831682</v>
+        <v>74.71953598831686</v>
       </c>
       <c r="J39" t="n">
-        <v>168.3968054789341</v>
+        <v>168.3968054789342</v>
       </c>
       <c r="K39" t="n">
         <v>406.6610044592813</v>
       </c>
       <c r="L39" t="n">
-        <v>773.3591647719467</v>
+        <v>773.3591647719468</v>
       </c>
       <c r="M39" t="n">
         <v>1220.635489994263</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2398.567917727119</v>
+        <v>610.2028371063066</v>
       </c>
       <c r="C40" t="n">
-        <v>2299.577200926589</v>
+        <v>511.212120305776</v>
       </c>
       <c r="D40" t="n">
-        <v>2219.40602764163</v>
+        <v>431.0409470208166</v>
       </c>
       <c r="E40" t="n">
-        <v>2141.438400186614</v>
+        <v>353.0733195657999</v>
       </c>
       <c r="F40" t="n">
-        <v>2064.49391881608</v>
+        <v>276.1288381952658</v>
       </c>
       <c r="G40" t="n">
-        <v>1966.736548318176</v>
+        <v>178.3714676973611</v>
       </c>
       <c r="H40" t="n">
-        <v>1890.46482766341</v>
+        <v>102.0997470425952</v>
       </c>
       <c r="I40" t="n">
-        <v>1863.084616609132</v>
+        <v>74.71953598831686</v>
       </c>
       <c r="J40" t="n">
-        <v>1920.317000206467</v>
+        <v>119.8421684352524</v>
       </c>
       <c r="K40" t="n">
-        <v>2124.304183155344</v>
+        <v>323.8293513841288</v>
       </c>
       <c r="L40" t="n">
-        <v>2440.86398160384</v>
+        <v>640.389149832625</v>
       </c>
       <c r="M40" t="n">
-        <v>2785.021027203389</v>
+        <v>984.546195432174</v>
       </c>
       <c r="N40" t="n">
-        <v>3126.429403909253</v>
+        <v>1325.954572138039</v>
       </c>
       <c r="O40" t="n">
-        <v>3425.759002829667</v>
+        <v>1625.284171058452</v>
       </c>
       <c r="P40" t="n">
-        <v>3658.366503263326</v>
+        <v>1857.891671492112</v>
       </c>
       <c r="Q40" t="n">
-        <v>3735.976799415841</v>
+        <v>1947.61171879503</v>
       </c>
       <c r="R40" t="n">
-        <v>3716.091808300745</v>
+        <v>1927.726727679935</v>
       </c>
       <c r="S40" t="n">
-        <v>3594.351390254948</v>
+        <v>1805.986309634137</v>
       </c>
       <c r="T40" t="n">
-        <v>3442.530240951851</v>
+        <v>1654.16516033104</v>
       </c>
       <c r="U40" t="n">
-        <v>3223.372840204871</v>
+        <v>1435.00775958406</v>
       </c>
       <c r="V40" t="n">
-        <v>3038.633818126361</v>
+        <v>1250.268737505549</v>
       </c>
       <c r="W40" t="n">
-        <v>2819.162114216777</v>
+        <v>1030.797033595965</v>
       </c>
       <c r="X40" t="n">
-        <v>2661.118029446136</v>
+        <v>872.7529488253238</v>
       </c>
       <c r="Y40" t="n">
-        <v>2510.270916429983</v>
+        <v>721.90583580917</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2012.217276338825</v>
+        <v>1647.821809384542</v>
       </c>
       <c r="C41" t="n">
-        <v>1690.704392346486</v>
+        <v>1326.308925392204</v>
       </c>
       <c r="D41" t="n">
-        <v>1379.888326687809</v>
+        <v>1015.492859733527</v>
       </c>
       <c r="E41" t="n">
-        <v>1041.549707037638</v>
+        <v>677.1542400833558</v>
       </c>
       <c r="F41" t="n">
-        <v>678.0134351961042</v>
+        <v>313.6179682418216</v>
       </c>
       <c r="G41" t="n">
-        <v>310.390617989174</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218343</v>
@@ -7444,19 +7444,19 @@
         <v>3167.077706941467</v>
       </c>
       <c r="U41" t="n">
-        <v>2960.996863163377</v>
+        <v>2960.996863163376</v>
       </c>
       <c r="V41" t="n">
-        <v>2677.38360876788</v>
+        <v>2960.996863163376</v>
       </c>
       <c r="W41" t="n">
-        <v>2677.38360876788</v>
+        <v>2655.677840841336</v>
       </c>
       <c r="X41" t="n">
-        <v>2351.367483454873</v>
+        <v>2329.661715528329</v>
       </c>
       <c r="Y41" t="n">
-        <v>2351.367483454873</v>
+        <v>1986.972016500591</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218343</v>
@@ -7523,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7532,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>759.4662498052944</v>
+        <v>759.4662498052943</v>
       </c>
       <c r="C43" t="n">
-        <v>637.9796998254608</v>
+        <v>637.9796998254607</v>
       </c>
       <c r="D43" t="n">
-        <v>535.3126933611984</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E43" t="n">
-        <v>434.8492327268787</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F43" t="n">
-        <v>335.4089181770416</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G43" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H43" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I43" t="n">
         <v>66.51211643218343</v>
@@ -7575,19 +7575,19 @@
         <v>408.6327023328087</v>
       </c>
       <c r="L43" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337114</v>
       </c>
       <c r="M43" t="n">
         <v>1162.360316885667</v>
       </c>
       <c r="N43" t="n">
-        <v>1550.274078843939</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O43" t="n">
-        <v>1896.109063016759</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P43" t="n">
-        <v>2175.221948702825</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q43" t="n">
         <v>2299.337630107746</v>
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1743.508888527414</v>
+        <v>2018.472742224994</v>
       </c>
       <c r="C44" t="n">
-        <v>1696.959858232655</v>
+        <v>1696.959858232656</v>
       </c>
       <c r="D44" t="n">
-        <v>1386.143792573978</v>
+        <v>1386.143792573979</v>
       </c>
       <c r="E44" t="n">
-        <v>1047.805172923807</v>
+        <v>1047.805172923808</v>
       </c>
       <c r="F44" t="n">
-        <v>684.268901082273</v>
+        <v>684.2689010822733</v>
       </c>
       <c r="G44" t="n">
-        <v>316.6460838753429</v>
+        <v>316.646083875343</v>
       </c>
       <c r="H44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
         <v>3262.764786084339</v>
       </c>
       <c r="T44" t="n">
-        <v>3262.764786084339</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U44" t="n">
-        <v>3056.683942306248</v>
+        <v>3026.328773681788</v>
       </c>
       <c r="V44" t="n">
-        <v>3056.683942306248</v>
+        <v>3026.328773681788</v>
       </c>
       <c r="W44" t="n">
-        <v>2751.364919984208</v>
+        <v>3026.328773681788</v>
       </c>
       <c r="X44" t="n">
-        <v>2425.348794671201</v>
+        <v>2700.312648368781</v>
       </c>
       <c r="Y44" t="n">
-        <v>2082.659095643463</v>
+        <v>2357.622949341043</v>
       </c>
     </row>
     <row r="45">
@@ -7703,34 +7703,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387292</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
         <v>765.151745215813</v>
@@ -7745,31 +7745,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
         <v>1109.759191501176</v>
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>759.4662498052951</v>
+        <v>759.4662498052948</v>
       </c>
       <c r="C46" t="n">
-        <v>637.9796998254615</v>
+        <v>637.9796998254611</v>
       </c>
       <c r="D46" t="n">
-        <v>535.3126933611991</v>
+        <v>535.3126933611986</v>
       </c>
       <c r="E46" t="n">
-        <v>434.8492327268793</v>
+        <v>434.8492327268787</v>
       </c>
       <c r="F46" t="n">
-        <v>335.4089181770423</v>
+        <v>335.4089181770416</v>
       </c>
       <c r="G46" t="n">
-        <v>215.1557144998346</v>
+        <v>215.1557144998338</v>
       </c>
       <c r="H46" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
         <v>158.1401341315256</v>
       </c>
       <c r="K46" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L46" t="n">
-        <v>771.6978860337114</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M46" t="n">
         <v>1162.360316885667</v>
@@ -7833,16 +7833,16 @@
         <v>2256.956805813347</v>
       </c>
       <c r="S46" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588248</v>
       </c>
       <c r="T46" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105847</v>
       </c>
       <c r="U46" t="n">
         <v>1696.750338179563</v>
       </c>
       <c r="V46" t="n">
-        <v>1489.515482921749</v>
+        <v>1489.51548292175</v>
       </c>
       <c r="W46" t="n">
         <v>1247.547945832862</v>
@@ -7851,7 +7851,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y46" t="n">
-        <v>893.6650816874615</v>
+        <v>893.6650816874612</v>
       </c>
     </row>
   </sheetData>
@@ -8455,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>226.965896786692</v>
       </c>
       <c r="L8" t="n">
         <v>235.7664149699872</v>
@@ -8464,7 +8464,7 @@
         <v>236.944458939016</v>
       </c>
       <c r="N8" t="n">
-        <v>236.2891093383024</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
         <v>236.9742571633982</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>144.7174847160704</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>145.4304255215856</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>149.0100796637298</v>
       </c>
       <c r="N9" t="n">
         <v>137.9399377950766</v>
       </c>
       <c r="O9" t="n">
-        <v>149.4722901861559</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>140.8504531560417</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>146.857819827733</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8698,7 +8698,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>42.35024886167002</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8707,7 +8707,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>42.35024886166701</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>42.35024886166678</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8935,7 +8935,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>42.35024886167002</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9163,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>126.7773571048684</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>30.91485072590217</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9181,7 +9181,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9400,16 +9400,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>30.914850725902</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>213.763030231295</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>382.8596454033701</v>
+        <v>213.763030231295</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9883,22 +9883,22 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>351.9445487156222</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>32.5313483320117</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10126,16 +10126,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>155.5139614658075</v>
+        <v>32.5313483320117</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>5.304985395134281</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>356.5705047211271</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>84.42710824320068</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10603,13 +10603,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>171.4127813696289</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.15273239095004</v>
+        <v>128.1944058817978</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>395.0730840237335</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10843,10 +10843,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.13331566353736e-12</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -23263,13 +23263,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020905</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23311,16 +23311,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>203.7759531007329</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>27.74866064919212</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23503,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>172.2210560653621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T14" t="n">
         <v>156.9428335210276</v>
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>113.5125278883546</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>73.92207912925755</v>
       </c>
       <c r="I28" t="n">
-        <v>54.77549063691215</v>
+        <v>54.7754906369122</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>47.35522289712138</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>26.56685623213465</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>125.6698913257019</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24852,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>124.4488784861023</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>4.248691280065998</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>3.027678440466822</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>83.25605420454241</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>83.25605420454369</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>119.3117957433191</v>
       </c>
       <c r="H41" t="n">
-        <v>6.192911227307178</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25687,16 +25687,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W41" t="n">
-        <v>302.2658320988204</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>272.2142151606034</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25918,16 +25918,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>126.8912165828112</v>
       </c>
       <c r="V44" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>586289.5683119743</v>
+        <v>586289.5683119742</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>586289.5683119743</v>
+        <v>586289.5683119742</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>638320.4824218965</v>
+        <v>638320.4824218964</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>638320.4824218965</v>
+        <v>638320.4824218964</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>646537.4543715286</v>
+        <v>646537.4543715287</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>646537.4543715286</v>
+        <v>646537.4543715287</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>637056.3274933756</v>
+        <v>637056.3274933757</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>637056.3274933756</v>
+        <v>637056.3274933757</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>582547.4168925671</v>
+        <v>582547.416892567</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>582547.416892567</v>
+        <v>582547.4168925668</v>
       </c>
     </row>
   </sheetData>
@@ -26322,40 +26322,40 @@
         <v>820371.0051991189</v>
       </c>
       <c r="E2" t="n">
+        <v>767835.0052110247</v>
+      </c>
+      <c r="F2" t="n">
         <v>767835.0052110248</v>
       </c>
-      <c r="F2" t="n">
-        <v>767835.0052110245</v>
-      </c>
       <c r="G2" t="n">
-        <v>821041.7698642834</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="H2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="I2" t="n">
         <v>821041.7698642835</v>
       </c>
       <c r="J2" t="n">
-        <v>817953.0281898958</v>
+        <v>817953.0281898957</v>
       </c>
       <c r="K2" t="n">
-        <v>817953.0281898957</v>
+        <v>817953.028189896</v>
       </c>
       <c r="L2" t="n">
-        <v>819043.6245633729</v>
+        <v>819043.6245633728</v>
       </c>
       <c r="M2" t="n">
         <v>821041.7698642833</v>
       </c>
       <c r="N2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="O2" t="n">
-        <v>764531.0098898427</v>
+        <v>764531.0098898428</v>
       </c>
       <c r="P2" t="n">
-        <v>764531.0098898415</v>
+        <v>764531.0098898418</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>43563.97630336783</v>
+        <v>43563.97630336809</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>41134.59983050844</v>
+        <v>41134.59983050837</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>16969.67584401456</v>
+        <v>16969.67584401463</v>
       </c>
       <c r="M3" t="n">
-        <v>205589.7634658733</v>
+        <v>205589.7634658731</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>425420.8672695345</v>
       </c>
       <c r="E4" t="n">
-        <v>58264.88103180883</v>
+        <v>58264.88103180875</v>
       </c>
       <c r="F4" t="n">
-        <v>58264.88103180884</v>
+        <v>58264.88103180874</v>
       </c>
       <c r="G4" t="n">
-        <v>82621.82837343635</v>
+        <v>82621.82837343639</v>
       </c>
       <c r="H4" t="n">
-        <v>82621.82837343635</v>
+        <v>82621.82837343639</v>
       </c>
       <c r="I4" t="n">
-        <v>82621.82837343635</v>
+        <v>82621.82837343641</v>
       </c>
       <c r="J4" t="n">
-        <v>75805.00953995014</v>
+        <v>75805.00953995012</v>
       </c>
       <c r="K4" t="n">
-        <v>75805.00953995016</v>
+        <v>75805.00953995017</v>
       </c>
       <c r="L4" t="n">
-        <v>76828.59500547318</v>
+        <v>76828.59500547312</v>
       </c>
       <c r="M4" t="n">
-        <v>83223.49232419793</v>
+        <v>83223.49232419781</v>
       </c>
       <c r="N4" t="n">
-        <v>83223.49232419791</v>
+        <v>83223.49232419782</v>
       </c>
       <c r="O4" t="n">
-        <v>56995.66948357396</v>
+        <v>56995.66948357394</v>
       </c>
       <c r="P4" t="n">
-        <v>56995.66948357398</v>
+        <v>56995.66948357389</v>
       </c>
     </row>
     <row r="5">
@@ -26478,19 +26478,19 @@
         <v>34045.66358109605</v>
       </c>
       <c r="E5" t="n">
-        <v>78905.78571450667</v>
+        <v>78905.78571450661</v>
       </c>
       <c r="F5" t="n">
-        <v>78905.78571450667</v>
+        <v>78905.78571450661</v>
       </c>
       <c r="G5" t="n">
-        <v>86766.46530869282</v>
+        <v>86766.4653086928</v>
       </c>
       <c r="H5" t="n">
-        <v>86766.46530869282</v>
+        <v>86766.4653086928</v>
       </c>
       <c r="I5" t="n">
-        <v>86766.46530869282</v>
+        <v>86766.4653086928</v>
       </c>
       <c r="J5" t="n">
         <v>90108.14210422119</v>
@@ -26502,16 +26502,16 @@
         <v>89850.31738976344</v>
       </c>
       <c r="M5" t="n">
-        <v>86365.42236199847</v>
+        <v>86365.42236199848</v>
       </c>
       <c r="N5" t="n">
-        <v>86365.42236199847</v>
+        <v>86365.42236199848</v>
       </c>
       <c r="O5" t="n">
         <v>78255.49332178176</v>
       </c>
       <c r="P5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178176</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>360125.5995509348</v>
+        <v>360081.4637722537</v>
       </c>
       <c r="C6" t="n">
-        <v>360125.5995509347</v>
+        <v>360081.4637722536</v>
       </c>
       <c r="D6" t="n">
-        <v>358768.5682597405</v>
+        <v>358751.7991431114</v>
       </c>
       <c r="E6" t="n">
-        <v>-531824.259610767</v>
+        <v>-533154.4287270982</v>
       </c>
       <c r="F6" t="n">
-        <v>630664.3384647091</v>
+        <v>629334.1693483779</v>
       </c>
       <c r="G6" t="n">
-        <v>608089.4998787864</v>
+        <v>608089.499878786</v>
       </c>
       <c r="H6" t="n">
-        <v>651653.476182154</v>
+        <v>651653.4761821541</v>
       </c>
       <c r="I6" t="n">
         <v>651653.4761821544</v>
       </c>
       <c r="J6" t="n">
-        <v>610905.276715216</v>
+        <v>610828.0581733565</v>
       </c>
       <c r="K6" t="n">
-        <v>652039.8765457243</v>
+        <v>651962.658003865</v>
       </c>
       <c r="L6" t="n">
-        <v>635395.0363241218</v>
+        <v>635345.0826915989</v>
       </c>
       <c r="M6" t="n">
-        <v>445863.0917122136</v>
+        <v>445863.0917122139</v>
       </c>
       <c r="N6" t="n">
-        <v>651452.8551780867</v>
+        <v>651452.855178087</v>
       </c>
       <c r="O6" t="n">
-        <v>629279.847084487</v>
+        <v>627867.0780851261</v>
       </c>
       <c r="P6" t="n">
-        <v>629279.8470844858</v>
+        <v>627867.0780851252</v>
       </c>
     </row>
   </sheetData>
@@ -26694,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G2" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="H2" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="I2" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="J2" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292589</v>
       </c>
       <c r="K2" t="n">
         <v>41.57692977292594</v>
       </c>
       <c r="L2" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252832</v>
       </c>
       <c r="M2" t="n">
-        <v>69.24601146610279</v>
+        <v>69.24601146610256</v>
       </c>
       <c r="N2" t="n">
-        <v>69.24601146610279</v>
+        <v>69.24601146610256</v>
       </c>
       <c r="O2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="3">
@@ -26798,19 +26798,19 @@
         <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>842.0970539668472</v>
+        <v>842.0970539668464</v>
       </c>
       <c r="F4" t="n">
-        <v>842.0970539668472</v>
+        <v>842.0970539668464</v>
       </c>
       <c r="G4" t="n">
-        <v>944.6897984185144</v>
+        <v>944.6897984185141</v>
       </c>
       <c r="H4" t="n">
-        <v>944.6897984185144</v>
+        <v>944.6897984185141</v>
       </c>
       <c r="I4" t="n">
-        <v>944.6897984185144</v>
+        <v>944.6897984185141</v>
       </c>
       <c r="J4" t="n">
         <v>1033.810511878408</v>
@@ -26822,16 +26822,16 @@
         <v>1026.934466136696</v>
       </c>
       <c r="M4" t="n">
-        <v>933.9941998539601</v>
+        <v>933.9941998539607</v>
       </c>
       <c r="N4" t="n">
-        <v>933.9941998539603</v>
+        <v>933.9941998539607</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
     </row>
   </sheetData>
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>19.30605492541575</v>
+        <v>19.30605492541589</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,16 +26931,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>22.27087484751019</v>
+        <v>22.27087484750999</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>21.2120948050182</v>
+        <v>21.21209480501828</v>
       </c>
       <c r="M2" t="n">
-        <v>25.7630418135744</v>
+        <v>25.76304181357424</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>835.2210082251357</v>
+        <v>835.2210082251349</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>102.5927444516673</v>
+        <v>102.5927444516678</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>89.12071345989318</v>
+        <v>89.12071345989352</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>742.2807419423996</v>
+        <v>742.2807419423993</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>19.30605492541575</v>
+        <v>19.30605492541589</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27168,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>22.27087484751019</v>
+        <v>22.27087484750999</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27266,13 +27266,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M4" t="n">
-        <v>835.2210082251357</v>
+        <v>835.2210082251349</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>102.5927444516673</v>
+        <v>102.5927444516678</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>204.4194684811065</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>5.073243612901081</v>
@@ -27900,7 +27900,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>143.8126968518503</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27946,13 +27946,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>130.4674714214992</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>105.359398494785</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>82.52058710970364</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>94.84800438960156</v>
+        <v>93.2817884109317</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27994,10 +27994,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>244.8189374192082</v>
       </c>
       <c r="X9" t="n">
-        <v>198.896939461766</v>
+        <v>200.4631554404359</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28028,16 +28028,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>158.8921921532467</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>148.5744291855468</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>86.48313437496134</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>15.39344608417142</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>79.28599750998295</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28067,13 +28067,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>279.4429836147795</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>245.2615975821166</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>283.1880179823981</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="14">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.9751366185923</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859307</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="17">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="C17" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="D17" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="E17" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="F17" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="G17" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="H17" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="T17" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="U17" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="V17" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="W17" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="X17" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="Y17" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
     </row>
     <row r="18">
@@ -28721,40 +28721,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="C19" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="D19" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="E19" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="F19" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="G19" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="H19" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="I19" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>60.63235628242899</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>60.63235628242609</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28769,28 +28769,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="S19" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="T19" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="U19" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="V19" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="W19" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="X19" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="Y19" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
     </row>
     <row r="20">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="C20" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="D20" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="E20" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="F20" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="G20" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="H20" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="T20" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="U20" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="V20" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="W20" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="X20" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="Y20" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
     </row>
     <row r="21">
@@ -28958,28 +28958,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="C22" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="D22" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="E22" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="F22" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="G22" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="H22" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="I22" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -28994,7 +28994,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>60.63235628242597</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29003,31 +29003,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>60.63235628242909</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="S22" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="T22" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="U22" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="V22" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="W22" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="X22" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="Y22" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
     </row>
     <row r="23">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="C23" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="D23" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="E23" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="F23" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="G23" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="H23" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="T23" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="U23" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="V23" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="W23" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="X23" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="Y23" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
     </row>
     <row r="24">
@@ -29195,28 +29195,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="C25" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="D25" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="E25" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="F25" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="G25" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="H25" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="I25" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29231,7 +29231,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>60.63235628242893</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29240,31 +29240,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>60.6323562824261</v>
       </c>
       <c r="R25" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="S25" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="T25" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="U25" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="V25" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="W25" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="X25" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
       <c r="Y25" t="n">
-        <v>66.28119154400828</v>
+        <v>66.28119154400844</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292589</v>
       </c>
       <c r="C26" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292589</v>
       </c>
       <c r="D26" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292589</v>
       </c>
       <c r="E26" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292589</v>
       </c>
       <c r="F26" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292589</v>
       </c>
       <c r="G26" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292589</v>
       </c>
       <c r="H26" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292589</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292589</v>
       </c>
       <c r="T26" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292589</v>
       </c>
       <c r="U26" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292589</v>
       </c>
       <c r="V26" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292589</v>
       </c>
       <c r="W26" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292589</v>
       </c>
       <c r="X26" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292589</v>
       </c>
       <c r="Y26" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292589</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292589</v>
       </c>
       <c r="C28" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292589</v>
       </c>
       <c r="D28" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292589</v>
       </c>
       <c r="E28" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292589</v>
       </c>
       <c r="F28" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292589</v>
       </c>
       <c r="G28" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292589</v>
       </c>
       <c r="H28" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292589</v>
       </c>
       <c r="I28" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292589</v>
       </c>
       <c r="J28" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292589</v>
       </c>
       <c r="K28" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292589</v>
       </c>
       <c r="L28" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292589</v>
       </c>
       <c r="M28" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292589</v>
       </c>
       <c r="N28" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292589</v>
       </c>
       <c r="O28" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292589</v>
       </c>
       <c r="P28" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292589</v>
       </c>
       <c r="Q28" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292589</v>
       </c>
       <c r="R28" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292589</v>
       </c>
       <c r="S28" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292589</v>
       </c>
       <c r="T28" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292589</v>
       </c>
       <c r="U28" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292589</v>
       </c>
       <c r="V28" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292589</v>
       </c>
       <c r="W28" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292589</v>
       </c>
       <c r="X28" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292589</v>
       </c>
       <c r="Y28" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292589</v>
       </c>
     </row>
     <row r="29">
@@ -29532,7 +29532,7 @@
         <v>41.57692977292594</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29748,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252832</v>
       </c>
       <c r="C32" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252832</v>
       </c>
       <c r="D32" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252832</v>
       </c>
       <c r="E32" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252832</v>
       </c>
       <c r="F32" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252832</v>
       </c>
       <c r="G32" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252832</v>
       </c>
       <c r="H32" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252832</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252832</v>
       </c>
       <c r="T32" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252832</v>
       </c>
       <c r="U32" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252832</v>
       </c>
       <c r="V32" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252832</v>
       </c>
       <c r="W32" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252832</v>
       </c>
       <c r="X32" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252832</v>
       </c>
       <c r="Y32" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252832</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252832</v>
       </c>
       <c r="C34" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252832</v>
       </c>
       <c r="D34" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252832</v>
       </c>
       <c r="E34" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252832</v>
       </c>
       <c r="F34" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252832</v>
       </c>
       <c r="G34" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252832</v>
       </c>
       <c r="H34" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252832</v>
       </c>
       <c r="I34" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252832</v>
       </c>
       <c r="J34" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252832</v>
       </c>
       <c r="K34" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252832</v>
       </c>
       <c r="L34" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252832</v>
       </c>
       <c r="M34" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252832</v>
       </c>
       <c r="N34" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252832</v>
       </c>
       <c r="O34" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252832</v>
       </c>
       <c r="P34" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252832</v>
       </c>
       <c r="Q34" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252832</v>
       </c>
       <c r="R34" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252832</v>
       </c>
       <c r="S34" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252832</v>
       </c>
       <c r="T34" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252832</v>
       </c>
       <c r="U34" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252832</v>
       </c>
       <c r="V34" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252832</v>
       </c>
       <c r="W34" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252832</v>
       </c>
       <c r="X34" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252832</v>
       </c>
       <c r="Y34" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252832</v>
       </c>
     </row>
     <row r="35">
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>69.24601146610279</v>
+        <v>69.24601146610256</v>
       </c>
       <c r="C35" t="n">
-        <v>69.24601146610279</v>
+        <v>69.24601146610256</v>
       </c>
       <c r="D35" t="n">
-        <v>69.24601146610279</v>
+        <v>69.24601146610256</v>
       </c>
       <c r="E35" t="n">
-        <v>69.24601146610279</v>
+        <v>69.24601146610256</v>
       </c>
       <c r="F35" t="n">
-        <v>69.24601146610279</v>
+        <v>69.24601146610256</v>
       </c>
       <c r="G35" t="n">
-        <v>69.24601146610279</v>
+        <v>69.24601146610256</v>
       </c>
       <c r="H35" t="n">
-        <v>69.24601146610279</v>
+        <v>69.24601146610256</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>69.24601146610279</v>
+        <v>69.24601146610256</v>
       </c>
       <c r="T35" t="n">
-        <v>69.24601146610279</v>
+        <v>69.24601146610256</v>
       </c>
       <c r="U35" t="n">
-        <v>69.24601146610279</v>
+        <v>69.24601146610256</v>
       </c>
       <c r="V35" t="n">
-        <v>69.24601146610279</v>
+        <v>69.24601146610256</v>
       </c>
       <c r="W35" t="n">
-        <v>69.24601146610279</v>
+        <v>69.24601146610256</v>
       </c>
       <c r="X35" t="n">
-        <v>69.24601146610279</v>
+        <v>69.24601146610256</v>
       </c>
       <c r="Y35" t="n">
-        <v>69.24601146610279</v>
+        <v>69.24601146610256</v>
       </c>
     </row>
     <row r="36">
@@ -30143,31 +30143,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>69.24601146610279</v>
+        <v>69.24601146610256</v>
       </c>
       <c r="C37" t="n">
-        <v>69.24601146610279</v>
+        <v>69.24601146610256</v>
       </c>
       <c r="D37" t="n">
-        <v>69.24601146610279</v>
+        <v>69.24601146610256</v>
       </c>
       <c r="E37" t="n">
-        <v>69.24601146610279</v>
+        <v>69.24601146610256</v>
       </c>
       <c r="F37" t="n">
-        <v>69.24601146610279</v>
+        <v>69.24601146610256</v>
       </c>
       <c r="G37" t="n">
-        <v>69.24601146610279</v>
+        <v>69.24601146610256</v>
       </c>
       <c r="H37" t="n">
-        <v>69.24601146610279</v>
+        <v>69.24601146610256</v>
       </c>
       <c r="I37" t="n">
-        <v>69.24601146610279</v>
+        <v>69.24601146610256</v>
       </c>
       <c r="J37" t="n">
-        <v>12.23207186909141</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30188,31 +30188,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>12.23207186909507</v>
       </c>
       <c r="R37" t="n">
-        <v>69.24601146610279</v>
+        <v>69.24601146610256</v>
       </c>
       <c r="S37" t="n">
-        <v>69.24601146610279</v>
+        <v>69.24601146610256</v>
       </c>
       <c r="T37" t="n">
-        <v>69.24601146610279</v>
+        <v>69.24601146610256</v>
       </c>
       <c r="U37" t="n">
-        <v>69.24601146610279</v>
+        <v>69.24601146610256</v>
       </c>
       <c r="V37" t="n">
-        <v>69.24601146610279</v>
+        <v>69.24601146610256</v>
       </c>
       <c r="W37" t="n">
-        <v>69.24601146610279</v>
+        <v>69.24601146610256</v>
       </c>
       <c r="X37" t="n">
-        <v>69.24601146610279</v>
+        <v>69.24601146610256</v>
       </c>
       <c r="Y37" t="n">
-        <v>69.24601146610279</v>
+        <v>69.24601146610256</v>
       </c>
     </row>
     <row r="38">
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>69.24601146610279</v>
+        <v>69.24601146610256</v>
       </c>
       <c r="C38" t="n">
-        <v>69.24601146610279</v>
+        <v>69.24601146610256</v>
       </c>
       <c r="D38" t="n">
-        <v>69.24601146610279</v>
+        <v>69.24601146610256</v>
       </c>
       <c r="E38" t="n">
-        <v>69.24601146610279</v>
+        <v>69.24601146610256</v>
       </c>
       <c r="F38" t="n">
-        <v>69.24601146610279</v>
+        <v>69.24601146610256</v>
       </c>
       <c r="G38" t="n">
-        <v>69.24601146610279</v>
+        <v>69.24601146610256</v>
       </c>
       <c r="H38" t="n">
-        <v>69.24601146610279</v>
+        <v>69.24601146610256</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>69.24601146610279</v>
+        <v>69.24601146610256</v>
       </c>
       <c r="T38" t="n">
-        <v>69.24601146610279</v>
+        <v>69.24601146610256</v>
       </c>
       <c r="U38" t="n">
-        <v>69.24601146610279</v>
+        <v>69.24601146610256</v>
       </c>
       <c r="V38" t="n">
-        <v>69.24601146610279</v>
+        <v>69.24601146610256</v>
       </c>
       <c r="W38" t="n">
-        <v>69.24601146610279</v>
+        <v>69.24601146610256</v>
       </c>
       <c r="X38" t="n">
-        <v>69.24601146610279</v>
+        <v>69.24601146610256</v>
       </c>
       <c r="Y38" t="n">
-        <v>69.24601146610279</v>
+        <v>69.24601146610256</v>
       </c>
     </row>
     <row r="39">
@@ -30380,31 +30380,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>69.24601146610279</v>
+        <v>69.24601146610256</v>
       </c>
       <c r="C40" t="n">
-        <v>69.24601146610279</v>
+        <v>69.24601146610256</v>
       </c>
       <c r="D40" t="n">
-        <v>69.24601146610279</v>
+        <v>69.24601146610256</v>
       </c>
       <c r="E40" t="n">
-        <v>69.24601146610279</v>
+        <v>69.24601146610256</v>
       </c>
       <c r="F40" t="n">
-        <v>69.24601146610279</v>
+        <v>69.24601146610256</v>
       </c>
       <c r="G40" t="n">
-        <v>69.24601146610279</v>
+        <v>69.24601146610256</v>
       </c>
       <c r="H40" t="n">
-        <v>69.24601146610279</v>
+        <v>69.24601146610256</v>
       </c>
       <c r="I40" t="n">
-        <v>69.24601146610279</v>
+        <v>69.24601146610256</v>
       </c>
       <c r="J40" t="n">
-        <v>12.2320718690908</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30425,31 +30425,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>12.23207186909507</v>
       </c>
       <c r="R40" t="n">
-        <v>69.24601146610279</v>
+        <v>69.24601146610256</v>
       </c>
       <c r="S40" t="n">
-        <v>69.24601146610279</v>
+        <v>69.24601146610256</v>
       </c>
       <c r="T40" t="n">
-        <v>69.24601146610279</v>
+        <v>69.24601146610256</v>
       </c>
       <c r="U40" t="n">
-        <v>69.24601146610279</v>
+        <v>69.24601146610256</v>
       </c>
       <c r="V40" t="n">
-        <v>69.24601146610279</v>
+        <v>69.24601146610256</v>
       </c>
       <c r="W40" t="n">
-        <v>69.24601146610279</v>
+        <v>69.24601146610256</v>
       </c>
       <c r="X40" t="n">
-        <v>69.24601146610279</v>
+        <v>69.24601146610256</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.24601146610279</v>
+        <v>69.24601146610256</v>
       </c>
     </row>
     <row r="41">
@@ -30459,25 +30459,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="J46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="K46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="L46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="M46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="N46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="O46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="P46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="R46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="S46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
   </sheetData>
@@ -32563,7 +32563,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
         <v>557.708647897025</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987481</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33754,7 +33754,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35175,7 +35175,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35184,7 +35184,7 @@
         <v>6.598225711743296</v>
       </c>
       <c r="N8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>6.876045741711437</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N9" t="n">
-        <v>6.598225711743296</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="O9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35418,7 +35418,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>581.2713646918968</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
@@ -35427,7 +35427,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>441.1122350810389</v>
       </c>
       <c r="Q11" t="n">
         <v>250.7943048037195</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K13" t="n">
         <v>253.0227961629121</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>233.1372498303793</v>
       </c>
       <c r="K14" t="n">
         <v>337.1912865554005</v>
@@ -35655,7 +35655,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>581.2713646918968</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165853</v>
       </c>
       <c r="K16" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7325087887912</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M16" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N16" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O16" t="n">
         <v>349.3282668412323</v>
@@ -35883,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>317.564358073581</v>
       </c>
       <c r="K17" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>569.8359665561289</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
@@ -35901,7 +35901,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
         <v>250.7943048037195</v>
@@ -36044,13 +36044,13 @@
         <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>266.6800158267486</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>408.2657356759099</v>
       </c>
       <c r="N19" t="n">
         <v>344.8569461675401</v>
@@ -36120,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>368.1061372813025</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>752.6841460615218</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
@@ -36144,7 +36144,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36211,7 +36211,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
         <v>415.1124034525806</v>
@@ -36290,7 +36290,7 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>405.489302449966</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226398</v>
@@ -36299,7 +36299,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>139.0265948203227</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
@@ -36366,7 +36366,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>921.7807612335969</v>
+        <v>752.6841460615218</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
@@ -36527,7 +36527,7 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>405.489302449969</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
         <v>302.3531302226398</v>
@@ -36536,7 +36536,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>139.0265948203198</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
@@ -36603,22 +36603,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>904.2463841285337</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>540.5843492202308</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.15534638599217</v>
+        <v>87.15534638599212</v>
       </c>
       <c r="K28" t="n">
         <v>247.6245893172455</v>
@@ -36761,7 +36761,7 @@
         <v>361.334301943124</v>
       </c>
       <c r="M28" t="n">
-        <v>389.2103091664098</v>
+        <v>389.2103091664097</v>
       </c>
       <c r="N28" t="n">
         <v>386.433875940466</v>
@@ -36770,10 +36770,10 @@
         <v>343.9300599955657</v>
       </c>
       <c r="P28" t="n">
-        <v>276.5340009180364</v>
+        <v>276.5340009180363</v>
       </c>
       <c r="Q28" t="n">
-        <v>119.9711683108196</v>
+        <v>119.9711683108195</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
@@ -36846,16 +36846,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>663.5669623540266</v>
+        <v>540.5843492202308</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>342.4962719505348</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>908.8723401340386</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127265</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>89.06138626559461</v>
+        <v>89.06138626559454</v>
       </c>
       <c r="K34" t="n">
         <v>249.5306291968479</v>
@@ -37235,16 +37235,16 @@
         <v>363.2403418227265</v>
       </c>
       <c r="M34" t="n">
-        <v>391.1163490460122</v>
+        <v>391.1163490460121</v>
       </c>
       <c r="N34" t="n">
-        <v>388.3399158200685</v>
+        <v>388.3399158200684</v>
       </c>
       <c r="O34" t="n">
         <v>345.8360998751681</v>
       </c>
       <c r="P34" t="n">
-        <v>278.4400407976388</v>
+        <v>278.4400407976387</v>
       </c>
       <c r="Q34" t="n">
         <v>121.877208190422</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554005</v>
@@ -37314,7 +37314,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>623.3482240734274</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
@@ -37323,13 +37323,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>422.2070861733484</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37402,7 +37402,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>57.81048848215763</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
         <v>206.0476595443196</v>
@@ -37484,7 +37484,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>90.62631040698872</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>201.9397333596626</v>
+        <v>318.9814068505104</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554005</v>
@@ -37551,7 +37551,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>933.9941998539603</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
@@ -37563,10 +37563,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>57.81048848215703</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
         <v>206.0476595443196</v>
@@ -37721,7 +37721,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>90.62631040698872</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165882</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
         <v>366.7325087887907</v>
@@ -37952,13 +37952,13 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O43" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165874</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
@@ -38183,7 +38183,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N46" t="n">
         <v>391.8320827861326</v>
@@ -38192,7 +38192,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
